--- a/help/54_2_COVID_19_svod.xlsx
+++ b/help/54_2_COVID_19_svod.xlsx
@@ -15,7 +15,6 @@
     <sheet name="svod" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Отчет" sheetId="2" r:id="rId2"/>
     <sheet name="Должники" sheetId="3" r:id="rId3"/>
-    <sheet name="ошибки с остатком" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">svod!$A$2:$H$326</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
   <si>
     <t>№ п/п</t>
   </si>
@@ -447,13 +446,19 @@
   </si>
   <si>
     <t>СПб ГБУЗ Городской туберкулезный санаторий "Сосновый Бор"</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Остаток на предыдущий день</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -534,6 +539,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -784,7 +801,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -885,6 +902,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -898,7 +921,17 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1133,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:G326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1144,23 +1177,22 @@
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="142" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="14.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" customHeight="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="27.6" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" ht="47.25" customHeight="1">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="47.25" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1211,11 @@
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.45" customHeight="1">
+      <c r="G2" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.45" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1189,8 +1224,9 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1199,8 +1235,9 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1209,8 +1246,9 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1219,8 +1257,9 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1229,8 +1268,9 @@
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1239,8 +1279,9 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1249,8 +1290,9 @@
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1259,8 +1301,9 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1269,8 +1312,9 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -1279,8 +1323,9 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -1289,8 +1334,9 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -1299,8 +1345,9 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1309,8 +1356,9 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1319,8 +1367,9 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1329,8 +1378,9 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -1339,8 +1389,9 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1349,8 +1400,9 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -1359,8 +1411,9 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -1369,8 +1422,9 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -1379,8 +1433,9 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -1389,8 +1444,9 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" customHeight="1">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -1399,8 +1455,9 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" customHeight="1">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -1409,8 +1466,9 @@
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" customHeight="1">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -1419,8 +1477,9 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" customHeight="1">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -1429,8 +1488,9 @@
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" customHeight="1">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -1439,8 +1499,9 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" customHeight="1">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -1449,8 +1510,9 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" customHeight="1">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -1459,8 +1521,9 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" customHeight="1">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -1469,8 +1532,9 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" customHeight="1">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -1479,8 +1543,9 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" customHeight="1">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -1489,8 +1554,9 @@
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" customHeight="1">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -1499,8 +1565,9 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" customHeight="1">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -1509,8 +1576,9 @@
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.25" customHeight="1">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -1519,8 +1587,9 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" customHeight="1">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -1529,8 +1598,9 @@
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.25" customHeight="1">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -1539,8 +1609,9 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.25" customHeight="1">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -1549,8 +1620,9 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" customHeight="1">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -1559,8 +1631,9 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.25" customHeight="1">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -1569,8 +1642,9 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" customHeight="1">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -1579,8 +1653,9 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.25" customHeight="1">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -1589,8 +1664,9 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" customHeight="1">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -1599,8 +1675,9 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.25" customHeight="1">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -1609,8 +1686,9 @@
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.25" customHeight="1">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -1619,8 +1697,9 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.25" customHeight="1">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -1629,8 +1708,9 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.25" customHeight="1">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -1639,8 +1719,9 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.25" customHeight="1">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -1649,8 +1730,9 @@
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" ht="20.25" customHeight="1">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -1659,8 +1741,9 @@
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.25" customHeight="1">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -1669,8 +1752,9 @@
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" ht="20.25" customHeight="1">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -1679,8 +1763,9 @@
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="1:7" ht="20.25" customHeight="1">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
-    </row>
-    <row r="54" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" ht="20.25" customHeight="1">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -1699,8 +1785,9 @@
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="1:7" ht="20.25" customHeight="1">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -1709,8 +1796,9 @@
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
-    </row>
-    <row r="56" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" ht="20.25" customHeight="1">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -1719,8 +1807,9 @@
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="1:7" ht="20.25" customHeight="1">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -1729,8 +1818,9 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
-    </row>
-    <row r="58" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.25" customHeight="1">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -1739,8 +1829,9 @@
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.25" customHeight="1">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -1749,8 +1840,9 @@
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
-    </row>
-    <row r="60" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.25" customHeight="1">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -1759,8 +1851,9 @@
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="1:7" ht="20.25" customHeight="1">
       <c r="A61" s="8">
         <v>59</v>
       </c>
@@ -1769,8 +1862,9 @@
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-    </row>
-    <row r="62" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.25" customHeight="1">
       <c r="A62" s="8">
         <v>60</v>
       </c>
@@ -1779,8 +1873,9 @@
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="1:7" ht="20.25" customHeight="1">
       <c r="A63" s="8">
         <v>61</v>
       </c>
@@ -1789,8 +1884,9 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.25" customHeight="1">
       <c r="A64" s="8">
         <v>62</v>
       </c>
@@ -1799,8 +1895,9 @@
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" spans="1:7" ht="20.25" customHeight="1">
       <c r="A65" s="8">
         <v>63</v>
       </c>
@@ -1809,8 +1906,9 @@
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
-    </row>
-    <row r="66" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="1:7" ht="20.25" customHeight="1">
       <c r="A66" s="8">
         <v>64</v>
       </c>
@@ -1819,8 +1917,9 @@
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G66" s="9"/>
+    </row>
+    <row r="67" spans="1:7" ht="20.25" customHeight="1">
       <c r="A67" s="8">
         <v>65</v>
       </c>
@@ -1829,8 +1928,9 @@
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-    </row>
-    <row r="68" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="1:7" ht="20.25" customHeight="1">
       <c r="A68" s="8">
         <v>66</v>
       </c>
@@ -1839,8 +1939,9 @@
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="1:7" ht="20.25" customHeight="1">
       <c r="A69" s="8">
         <v>67</v>
       </c>
@@ -1849,8 +1950,9 @@
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
-    </row>
-    <row r="70" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="1:7" ht="20.25" customHeight="1">
       <c r="A70" s="8">
         <v>68</v>
       </c>
@@ -1859,8 +1961,9 @@
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="20.25" customHeight="1">
       <c r="A71" s="8">
         <v>69</v>
       </c>
@@ -1869,8 +1972,9 @@
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
-    </row>
-    <row r="72" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="1:7" ht="20.25" customHeight="1">
       <c r="A72" s="8">
         <v>70</v>
       </c>
@@ -1879,8 +1983,9 @@
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="20.25" customHeight="1">
       <c r="A73" s="8">
         <v>71</v>
       </c>
@@ -1889,8 +1994,9 @@
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="1:7" ht="20.25" customHeight="1">
       <c r="A74" s="8">
         <v>72</v>
       </c>
@@ -1899,8 +2005,9 @@
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="20.25" customHeight="1">
       <c r="A75" s="8">
         <v>73</v>
       </c>
@@ -1909,8 +2016,9 @@
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
-    </row>
-    <row r="76" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="1:7" ht="20.25" customHeight="1">
       <c r="A76" s="8">
         <v>74</v>
       </c>
@@ -1919,8 +2027,9 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
-    </row>
-    <row r="77" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="20.25" customHeight="1">
       <c r="A77" s="8">
         <v>75</v>
       </c>
@@ -1929,8 +2038,9 @@
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="1:7" ht="20.25" customHeight="1">
       <c r="A78" s="8">
         <v>76</v>
       </c>
@@ -1939,8 +2049,9 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="20.25" customHeight="1">
       <c r="A79" s="8">
         <v>77</v>
       </c>
@@ -1949,8 +2060,9 @@
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
-    </row>
-    <row r="80" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="1:7" ht="20.25" customHeight="1">
       <c r="A80" s="8">
         <v>78</v>
       </c>
@@ -1959,8 +2071,9 @@
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="20.25" customHeight="1">
       <c r="A81" s="8">
         <v>79</v>
       </c>
@@ -1969,8 +2082,9 @@
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
-    </row>
-    <row r="82" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="1:7" ht="20.25" customHeight="1">
       <c r="A82" s="8">
         <v>80</v>
       </c>
@@ -1979,8 +2093,9 @@
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="20.25" customHeight="1">
       <c r="A83" s="8">
         <v>81</v>
       </c>
@@ -1989,8 +2104,9 @@
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
-    </row>
-    <row r="84" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.25" customHeight="1">
       <c r="A84" s="8">
         <v>82</v>
       </c>
@@ -1999,8 +2115,9 @@
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="1:7" ht="20.25" customHeight="1">
       <c r="A85" s="8">
         <v>83</v>
       </c>
@@ -2009,8 +2126,9 @@
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
-    </row>
-    <row r="86" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="1:7" ht="20.25" customHeight="1">
       <c r="A86" s="8">
         <v>84</v>
       </c>
@@ -2019,8 +2137,9 @@
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="20.25" customHeight="1">
       <c r="A87" s="8">
         <v>85</v>
       </c>
@@ -2029,8 +2148,9 @@
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
-    </row>
-    <row r="88" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="20.25" customHeight="1">
       <c r="A88" s="8">
         <v>86</v>
       </c>
@@ -2039,8 +2159,9 @@
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="20.25" customHeight="1">
       <c r="A89" s="8">
         <v>87</v>
       </c>
@@ -2049,8 +2170,9 @@
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
-    </row>
-    <row r="90" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="1:7" ht="20.25" customHeight="1">
       <c r="A90" s="8">
         <v>88</v>
       </c>
@@ -2059,8 +2181,9 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="20.25" customHeight="1">
       <c r="A91" s="8">
         <v>89</v>
       </c>
@@ -2069,8 +2192,9 @@
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
-    </row>
-    <row r="92" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.25" customHeight="1">
       <c r="A92" s="8">
         <v>90</v>
       </c>
@@ -2079,8 +2203,9 @@
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="20.25" customHeight="1">
       <c r="A93" s="8">
         <v>91</v>
       </c>
@@ -2089,8 +2214,9 @@
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
-    </row>
-    <row r="94" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.25" customHeight="1">
       <c r="A94" s="8">
         <v>92</v>
       </c>
@@ -2099,8 +2225,9 @@
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="20.25" customHeight="1">
       <c r="A95" s="8">
         <v>93</v>
       </c>
@@ -2109,8 +2236,9 @@
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-    </row>
-    <row r="96" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="20.25" customHeight="1">
       <c r="A96" s="8">
         <v>94</v>
       </c>
@@ -2119,8 +2247,9 @@
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
-    </row>
-    <row r="97" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="20.25" customHeight="1">
       <c r="A97" s="8">
         <v>95</v>
       </c>
@@ -2129,8 +2258,9 @@
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
-    </row>
-    <row r="98" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="1:7" ht="20.25" customHeight="1">
       <c r="A98" s="8">
         <v>96</v>
       </c>
@@ -2139,8 +2269,9 @@
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="20.25" customHeight="1">
       <c r="A99" s="8">
         <v>97</v>
       </c>
@@ -2149,8 +2280,9 @@
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
-    </row>
-    <row r="100" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="1:7" ht="20.25" customHeight="1">
       <c r="A100" s="8">
         <v>98</v>
       </c>
@@ -2159,8 +2291,9 @@
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" ht="20.25" customHeight="1">
       <c r="A101" s="8">
         <v>99</v>
       </c>
@@ -2169,8 +2302,9 @@
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
-    </row>
-    <row r="102" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" ht="20.25" customHeight="1">
       <c r="A102" s="8">
         <v>100</v>
       </c>
@@ -2179,8 +2313,9 @@
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="20.25" customHeight="1">
       <c r="A103" s="8">
         <v>101</v>
       </c>
@@ -2189,8 +2324,9 @@
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
-    </row>
-    <row r="104" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="1:7" ht="20.25" customHeight="1">
       <c r="A104" s="8">
         <v>102</v>
       </c>
@@ -2199,8 +2335,9 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" ht="20.25" customHeight="1">
       <c r="A105" s="8">
         <v>103</v>
       </c>
@@ -2209,8 +2346,9 @@
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
-    </row>
-    <row r="106" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="1:7" ht="20.25" customHeight="1">
       <c r="A106" s="8">
         <v>104</v>
       </c>
@@ -2219,8 +2357,9 @@
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="20.25" customHeight="1">
       <c r="A107" s="8">
         <v>105</v>
       </c>
@@ -2229,8 +2368,9 @@
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
-    </row>
-    <row r="108" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="1:7" ht="20.25" customHeight="1">
       <c r="A108" s="8">
         <v>106</v>
       </c>
@@ -2239,8 +2379,9 @@
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="20.25" customHeight="1">
       <c r="A109" s="8">
         <v>107</v>
       </c>
@@ -2249,8 +2390,9 @@
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
-    </row>
-    <row r="110" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="1:7" ht="20.25" customHeight="1">
       <c r="A110" s="8">
         <v>108</v>
       </c>
@@ -2259,8 +2401,9 @@
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="20.25" customHeight="1">
       <c r="A111" s="8">
         <v>109</v>
       </c>
@@ -2269,8 +2412,9 @@
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
-    </row>
-    <row r="112" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="1:7" ht="20.25" customHeight="1">
       <c r="A112" s="8">
         <v>110</v>
       </c>
@@ -2279,8 +2423,9 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="20.25" customHeight="1">
       <c r="A113" s="8">
         <v>111</v>
       </c>
@@ -2289,8 +2434,9 @@
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
-    </row>
-    <row r="114" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="1:7" ht="20.25" customHeight="1">
       <c r="A114" s="8">
         <v>112</v>
       </c>
@@ -2299,8 +2445,9 @@
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="20.25" customHeight="1">
       <c r="A115" s="8">
         <v>113</v>
       </c>
@@ -2309,8 +2456,9 @@
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
-    </row>
-    <row r="116" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="1:7" ht="20.25" customHeight="1">
       <c r="A116" s="8">
         <v>114</v>
       </c>
@@ -2319,8 +2467,9 @@
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
-    </row>
-    <row r="117" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="20.25" customHeight="1">
       <c r="A117" s="8">
         <v>115</v>
       </c>
@@ -2329,8 +2478,9 @@
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
-    </row>
-    <row r="118" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="1:7" ht="20.25" customHeight="1">
       <c r="A118" s="8">
         <v>116</v>
       </c>
@@ -2339,8 +2489,9 @@
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-    </row>
-    <row r="119" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" ht="20.25" customHeight="1">
       <c r="A119" s="8">
         <v>117</v>
       </c>
@@ -2349,8 +2500,9 @@
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
-    </row>
-    <row r="120" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="1:7" ht="20.25" customHeight="1">
       <c r="A120" s="8">
         <v>118</v>
       </c>
@@ -2359,8 +2511,9 @@
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
-    </row>
-    <row r="121" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="1:7" ht="20.25" customHeight="1">
       <c r="A121" s="8">
         <v>119</v>
       </c>
@@ -2369,8 +2522,9 @@
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="1:7" ht="20.25" customHeight="1">
       <c r="A122" s="8">
         <v>120</v>
       </c>
@@ -2379,8 +2533,9 @@
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-    </row>
-    <row r="123" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="1:7" ht="20.25" customHeight="1">
       <c r="A123" s="8">
         <v>121</v>
       </c>
@@ -2389,8 +2544,9 @@
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
-    </row>
-    <row r="124" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="20.25" customHeight="1">
       <c r="A124" s="8">
         <v>122</v>
       </c>
@@ -2399,8 +2555,9 @@
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-    </row>
-    <row r="125" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="1:7" ht="20.25" customHeight="1">
       <c r="A125" s="8">
         <v>123</v>
       </c>
@@ -2409,8 +2566,9 @@
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
-    </row>
-    <row r="126" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="1:7" ht="20.25" customHeight="1">
       <c r="A126" s="8">
         <v>124</v>
       </c>
@@ -2419,8 +2577,9 @@
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="20.25" customHeight="1">
       <c r="A127" s="8">
         <v>125</v>
       </c>
@@ -2429,8 +2588,9 @@
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
-    </row>
-    <row r="128" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="20.25" customHeight="1">
       <c r="A128" s="8">
         <v>126</v>
       </c>
@@ -2439,8 +2599,9 @@
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-    </row>
-    <row r="129" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" ht="20.25" customHeight="1">
       <c r="A129" s="8">
         <v>127</v>
       </c>
@@ -2449,8 +2610,9 @@
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
-    </row>
-    <row r="130" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="1:7" ht="20.25" customHeight="1">
       <c r="A130" s="8">
         <v>128</v>
       </c>
@@ -2459,8 +2621,9 @@
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
-    </row>
-    <row r="131" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" ht="20.25" customHeight="1">
       <c r="A131" s="8">
         <v>129</v>
       </c>
@@ -2469,8 +2632,9 @@
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
-    </row>
-    <row r="132" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="1:7" ht="20.25" customHeight="1">
       <c r="A132" s="8">
         <v>130</v>
       </c>
@@ -2479,8 +2643,9 @@
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-    </row>
-    <row r="133" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" ht="20.25" customHeight="1">
       <c r="A133" s="8">
         <v>131</v>
       </c>
@@ -2489,8 +2654,9 @@
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
-    </row>
-    <row r="134" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="20.25" customHeight="1">
       <c r="A134" s="8">
         <v>132</v>
       </c>
@@ -2499,8 +2665,9 @@
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-    </row>
-    <row r="135" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="20.25" customHeight="1">
       <c r="A135" s="8">
         <v>133</v>
       </c>
@@ -2509,8 +2676,9 @@
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
-    </row>
-    <row r="136" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="1:7" ht="20.25" customHeight="1">
       <c r="A136" s="8">
         <v>134</v>
       </c>
@@ -2519,8 +2687,9 @@
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-    </row>
-    <row r="137" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="20.25" customHeight="1">
       <c r="A137" s="8">
         <v>135</v>
       </c>
@@ -2529,8 +2698,9 @@
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
-    </row>
-    <row r="138" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="1:7" ht="20.25" customHeight="1">
       <c r="A138" s="8">
         <v>136</v>
       </c>
@@ -2539,8 +2709,9 @@
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
-    </row>
-    <row r="139" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="20.25" customHeight="1">
       <c r="A139" s="8">
         <v>137</v>
       </c>
@@ -2549,8 +2720,9 @@
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
-    </row>
-    <row r="140" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="1:7" ht="20.25" customHeight="1">
       <c r="A140" s="8">
         <v>138</v>
       </c>
@@ -2559,8 +2731,9 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
-    </row>
-    <row r="141" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="20.25" customHeight="1">
       <c r="A141" s="8">
         <v>139</v>
       </c>
@@ -2569,8 +2742,9 @@
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
-    </row>
-    <row r="142" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.25" customHeight="1">
       <c r="A142" s="8">
         <v>140</v>
       </c>
@@ -2579,8 +2753,9 @@
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-    </row>
-    <row r="143" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="1:7" ht="20.25" customHeight="1">
       <c r="A143" s="8">
         <v>141</v>
       </c>
@@ -2589,8 +2764,9 @@
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
-    </row>
-    <row r="144" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="1:7" ht="20.25" customHeight="1">
       <c r="A144" s="8">
         <v>142</v>
       </c>
@@ -2599,8 +2775,9 @@
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-    </row>
-    <row r="145" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="1:7" ht="20.25" customHeight="1">
       <c r="A145" s="8">
         <v>143</v>
       </c>
@@ -2609,8 +2786,9 @@
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
-    </row>
-    <row r="146" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="1:7" ht="20.25" customHeight="1">
       <c r="A146" s="8">
         <v>144</v>
       </c>
@@ -2619,8 +2797,9 @@
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
-    </row>
-    <row r="147" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="1:7" ht="20.25" customHeight="1">
       <c r="A147" s="8">
         <v>145</v>
       </c>
@@ -2629,8 +2808,9 @@
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
-    </row>
-    <row r="148" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" ht="20.25" customHeight="1">
       <c r="A148" s="8">
         <v>146</v>
       </c>
@@ -2639,8 +2819,9 @@
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
-    </row>
-    <row r="149" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="20.25" customHeight="1">
       <c r="A149" s="8">
         <v>147</v>
       </c>
@@ -2649,8 +2830,9 @@
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
-    </row>
-    <row r="150" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="1:7" ht="20.25" customHeight="1">
       <c r="A150" s="8">
         <v>148</v>
       </c>
@@ -2659,8 +2841,9 @@
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-    </row>
-    <row r="151" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" ht="20.25" customHeight="1">
       <c r="A151" s="8">
         <v>149</v>
       </c>
@@ -2669,8 +2852,9 @@
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
-    </row>
-    <row r="152" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="1:7" ht="20.25" customHeight="1">
       <c r="A152" s="8">
         <v>150</v>
       </c>
@@ -2679,8 +2863,9 @@
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
-    </row>
-    <row r="153" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G152" s="9"/>
+    </row>
+    <row r="153" spans="1:7" ht="20.25" customHeight="1">
       <c r="A153" s="8">
         <v>151</v>
       </c>
@@ -2689,8 +2874,9 @@
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
-    </row>
-    <row r="154" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="1:7" ht="20.25" customHeight="1">
       <c r="A154" s="8">
         <v>152</v>
       </c>
@@ -2699,8 +2885,9 @@
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
-    </row>
-    <row r="155" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G154" s="9"/>
+    </row>
+    <row r="155" spans="1:7" ht="20.25" customHeight="1">
       <c r="A155" s="8">
         <v>153</v>
       </c>
@@ -2709,8 +2896,9 @@
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
-    </row>
-    <row r="156" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" ht="20.25" customHeight="1">
       <c r="A156" s="8">
         <v>154</v>
       </c>
@@ -2719,8 +2907,9 @@
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
-    </row>
-    <row r="157" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G156" s="9"/>
+    </row>
+    <row r="157" spans="1:7" ht="20.25" customHeight="1">
       <c r="A157" s="8">
         <v>155</v>
       </c>
@@ -2729,8 +2918,9 @@
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
-    </row>
-    <row r="158" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="1:7" ht="20.25" customHeight="1">
       <c r="A158" s="8">
         <v>156</v>
       </c>
@@ -2739,8 +2929,9 @@
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
-    </row>
-    <row r="159" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G158" s="9"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.25" customHeight="1">
       <c r="A159" s="8">
         <v>157</v>
       </c>
@@ -2749,8 +2940,9 @@
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
-    </row>
-    <row r="160" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="1:7" ht="20.25" customHeight="1">
       <c r="A160" s="8">
         <v>158</v>
       </c>
@@ -2759,8 +2951,9 @@
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-    </row>
-    <row r="161" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G160" s="9"/>
+    </row>
+    <row r="161" spans="1:7" ht="20.25" customHeight="1">
       <c r="A161" s="8">
         <v>159</v>
       </c>
@@ -2769,8 +2962,9 @@
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
-    </row>
-    <row r="162" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" ht="20.25" customHeight="1">
       <c r="A162" s="8">
         <v>160</v>
       </c>
@@ -2779,8 +2973,9 @@
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
-    </row>
-    <row r="163" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G162" s="9"/>
+    </row>
+    <row r="163" spans="1:7" ht="20.25" customHeight="1">
       <c r="A163" s="8">
         <v>161</v>
       </c>
@@ -2789,8 +2984,9 @@
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
-    </row>
-    <row r="164" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="1:7" ht="20.25" customHeight="1">
       <c r="A164" s="8">
         <v>162</v>
       </c>
@@ -2799,8 +2995,9 @@
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
-    </row>
-    <row r="165" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G164" s="9"/>
+    </row>
+    <row r="165" spans="1:7" ht="20.25" customHeight="1">
       <c r="A165" s="8">
         <v>163</v>
       </c>
@@ -2809,8 +3006,9 @@
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
-    </row>
-    <row r="166" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="1:7" ht="20.25" customHeight="1">
       <c r="A166" s="8">
         <v>164</v>
       </c>
@@ -2819,8 +3017,9 @@
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
-    </row>
-    <row r="167" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G166" s="9"/>
+    </row>
+    <row r="167" spans="1:7" ht="20.25" customHeight="1">
       <c r="A167" s="8">
         <v>165</v>
       </c>
@@ -2829,8 +3028,9 @@
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
-    </row>
-    <row r="168" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="1:7" ht="20.25" customHeight="1">
       <c r="A168" s="8">
         <v>166</v>
       </c>
@@ -2839,8 +3039,9 @@
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-    </row>
-    <row r="169" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G168" s="9"/>
+    </row>
+    <row r="169" spans="1:7" ht="20.25" customHeight="1">
       <c r="A169" s="8">
         <v>167</v>
       </c>
@@ -2849,8 +3050,9 @@
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
-    </row>
-    <row r="170" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="1:7" ht="20.25" customHeight="1">
       <c r="A170" s="8">
         <v>168</v>
       </c>
@@ -2859,8 +3061,9 @@
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-    </row>
-    <row r="171" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="1:7" ht="20.25" customHeight="1">
       <c r="A171" s="8">
         <v>169</v>
       </c>
@@ -2869,8 +3072,9 @@
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
-    </row>
-    <row r="172" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="1:7" ht="20.25" customHeight="1">
       <c r="A172" s="8">
         <v>170</v>
       </c>
@@ -2879,8 +3083,9 @@
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-    </row>
-    <row r="173" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="1:7" ht="20.25" customHeight="1">
       <c r="A173" s="8">
         <v>171</v>
       </c>
@@ -2889,8 +3094,9 @@
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
-    </row>
-    <row r="174" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="1:7" ht="20.25" customHeight="1">
       <c r="A174" s="8">
         <v>172</v>
       </c>
@@ -2899,8 +3105,9 @@
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9"/>
-    </row>
-    <row r="175" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="1:7" ht="20.25" customHeight="1">
       <c r="A175" s="8">
         <v>173</v>
       </c>
@@ -2909,8 +3116,9 @@
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
-    </row>
-    <row r="176" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" ht="20.25" customHeight="1">
       <c r="A176" s="8">
         <v>174</v>
       </c>
@@ -2919,8 +3127,9 @@
       <c r="D176" s="9"/>
       <c r="E176" s="9"/>
       <c r="F176" s="9"/>
-    </row>
-    <row r="177" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G176" s="9"/>
+    </row>
+    <row r="177" spans="1:7" ht="20.25" customHeight="1">
       <c r="A177" s="8">
         <v>175</v>
       </c>
@@ -2929,8 +3138,9 @@
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
-    </row>
-    <row r="178" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" ht="20.25" customHeight="1">
       <c r="A178" s="8">
         <v>176</v>
       </c>
@@ -2939,8 +3149,9 @@
       <c r="D178" s="9"/>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
-    </row>
-    <row r="179" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="1:7" ht="20.25" customHeight="1">
       <c r="A179" s="8">
         <v>177</v>
       </c>
@@ -2949,8 +3160,9 @@
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
-    </row>
-    <row r="180" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="1:7" ht="20.25" customHeight="1">
       <c r="A180" s="8">
         <v>178</v>
       </c>
@@ -2959,8 +3171,9 @@
       <c r="D180" s="9"/>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
-    </row>
-    <row r="181" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="1:7" ht="20.25" customHeight="1">
       <c r="A181" s="8">
         <v>179</v>
       </c>
@@ -2969,8 +3182,9 @@
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
-    </row>
-    <row r="182" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="1:7" ht="20.25" customHeight="1">
       <c r="A182" s="8">
         <v>180</v>
       </c>
@@ -2979,8 +3193,9 @@
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
-    </row>
-    <row r="183" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G182" s="9"/>
+    </row>
+    <row r="183" spans="1:7" ht="20.25" customHeight="1">
       <c r="A183" s="8">
         <v>181</v>
       </c>
@@ -2989,8 +3204,9 @@
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
-    </row>
-    <row r="184" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="1:7" ht="20.25" customHeight="1">
       <c r="A184" s="8">
         <v>182</v>
       </c>
@@ -2999,8 +3215,9 @@
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
-    </row>
-    <row r="185" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G184" s="9"/>
+    </row>
+    <row r="185" spans="1:7" ht="20.25" customHeight="1">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -3009,8 +3226,9 @@
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
-    </row>
-    <row r="186" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="1:7" ht="20.25" customHeight="1">
       <c r="A186" s="8">
         <v>184</v>
       </c>
@@ -3019,8 +3237,9 @@
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
-    </row>
-    <row r="187" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G186" s="9"/>
+    </row>
+    <row r="187" spans="1:7" ht="20.25" customHeight="1">
       <c r="A187" s="8">
         <v>185</v>
       </c>
@@ -3029,8 +3248,9 @@
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
-    </row>
-    <row r="188" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="1:7" ht="20.25" customHeight="1">
       <c r="A188" s="8">
         <v>186</v>
       </c>
@@ -3039,8 +3259,9 @@
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
-    </row>
-    <row r="189" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G188" s="9"/>
+    </row>
+    <row r="189" spans="1:7" ht="20.25" customHeight="1">
       <c r="A189" s="8">
         <v>187</v>
       </c>
@@ -3049,8 +3270,9 @@
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
-    </row>
-    <row r="190" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="1:7" ht="20.25" customHeight="1">
       <c r="A190" s="8">
         <v>188</v>
       </c>
@@ -3059,8 +3281,9 @@
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
-    </row>
-    <row r="191" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G190" s="9"/>
+    </row>
+    <row r="191" spans="1:7" ht="20.25" customHeight="1">
       <c r="A191" s="8">
         <v>189</v>
       </c>
@@ -3069,8 +3292,9 @@
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
-    </row>
-    <row r="192" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="1:7" ht="20.25" customHeight="1">
       <c r="A192" s="8">
         <v>190</v>
       </c>
@@ -3079,8 +3303,9 @@
       <c r="D192" s="9"/>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
-    </row>
-    <row r="193" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="1:7" ht="20.25" customHeight="1">
       <c r="A193" s="8">
         <v>191</v>
       </c>
@@ -3089,8 +3314,9 @@
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
-    </row>
-    <row r="194" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="1:7" ht="20.25" customHeight="1">
       <c r="A194" s="8">
         <v>192</v>
       </c>
@@ -3099,8 +3325,9 @@
       <c r="D194" s="9"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9"/>
-    </row>
-    <row r="195" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="1:7" ht="20.25" customHeight="1">
       <c r="A195" s="8">
         <v>193</v>
       </c>
@@ -3109,8 +3336,9 @@
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
-    </row>
-    <row r="196" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="1:7" ht="20.25" customHeight="1">
       <c r="A196" s="8">
         <v>194</v>
       </c>
@@ -3119,8 +3347,9 @@
       <c r="D196" s="9"/>
       <c r="E196" s="9"/>
       <c r="F196" s="9"/>
-    </row>
-    <row r="197" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="1:7" ht="20.25" customHeight="1">
       <c r="A197" s="8">
         <v>195</v>
       </c>
@@ -3129,8 +3358,9 @@
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
-    </row>
-    <row r="198" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="1:7" ht="20.25" customHeight="1">
       <c r="A198" s="8">
         <v>196</v>
       </c>
@@ -3139,8 +3369,9 @@
       <c r="D198" s="9"/>
       <c r="E198" s="9"/>
       <c r="F198" s="9"/>
-    </row>
-    <row r="199" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G198" s="9"/>
+    </row>
+    <row r="199" spans="1:7" ht="20.25" customHeight="1">
       <c r="A199" s="8">
         <v>197</v>
       </c>
@@ -3149,8 +3380,9 @@
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
-    </row>
-    <row r="200" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="1:7" ht="20.25" customHeight="1">
       <c r="A200" s="8">
         <v>198</v>
       </c>
@@ -3159,8 +3391,9 @@
       <c r="D200" s="9"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9"/>
-    </row>
-    <row r="201" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G200" s="9"/>
+    </row>
+    <row r="201" spans="1:7" ht="20.25" customHeight="1">
       <c r="A201" s="8">
         <v>199</v>
       </c>
@@ -3169,8 +3402,9 @@
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
-    </row>
-    <row r="202" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="1:7" ht="20.25" customHeight="1">
       <c r="A202" s="8">
         <v>200</v>
       </c>
@@ -3179,8 +3413,9 @@
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
       <c r="F202" s="9"/>
-    </row>
-    <row r="203" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="1:7" ht="20.25" customHeight="1">
       <c r="A203" s="8">
         <v>201</v>
       </c>
@@ -3189,8 +3424,9 @@
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
-    </row>
-    <row r="204" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="1:7" ht="20.25" customHeight="1">
       <c r="A204" s="8">
         <v>202</v>
       </c>
@@ -3199,8 +3435,9 @@
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
       <c r="F204" s="9"/>
-    </row>
-    <row r="205" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G204" s="9"/>
+    </row>
+    <row r="205" spans="1:7" ht="20.25" customHeight="1">
       <c r="A205" s="8">
         <v>203</v>
       </c>
@@ -3209,8 +3446,9 @@
       <c r="D205" s="10"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
-    </row>
-    <row r="206" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="1:7" ht="20.25" customHeight="1">
       <c r="A206" s="8">
         <v>204</v>
       </c>
@@ -3219,8 +3457,9 @@
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
-    </row>
-    <row r="207" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G206" s="9"/>
+    </row>
+    <row r="207" spans="1:7" ht="20.25" customHeight="1">
       <c r="A207" s="8">
         <v>205</v>
       </c>
@@ -3229,8 +3468,9 @@
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
-    </row>
-    <row r="208" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="1:7" ht="20.25" customHeight="1">
       <c r="A208" s="8">
         <v>206</v>
       </c>
@@ -3239,8 +3479,9 @@
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
-    </row>
-    <row r="209" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G208" s="9"/>
+    </row>
+    <row r="209" spans="1:7" ht="20.25" customHeight="1">
       <c r="A209" s="8">
         <v>207</v>
       </c>
@@ -3249,8 +3490,9 @@
       <c r="D209" s="10"/>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
-    </row>
-    <row r="210" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="1:7" ht="20.25" customHeight="1">
       <c r="A210" s="8">
         <v>208</v>
       </c>
@@ -3259,8 +3501,9 @@
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
-    </row>
-    <row r="211" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G210" s="9"/>
+    </row>
+    <row r="211" spans="1:7" ht="20.25" customHeight="1">
       <c r="A211" s="8">
         <v>209</v>
       </c>
@@ -3269,8 +3512,9 @@
       <c r="D211" s="10"/>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
-    </row>
-    <row r="212" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="1:7" ht="20.25" customHeight="1">
       <c r="A212" s="8">
         <v>210</v>
       </c>
@@ -3279,8 +3523,9 @@
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
-    </row>
-    <row r="213" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G212" s="9"/>
+    </row>
+    <row r="213" spans="1:7" ht="20.25" customHeight="1">
       <c r="A213" s="8">
         <v>211</v>
       </c>
@@ -3289,8 +3534,9 @@
       <c r="D213" s="10"/>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
-    </row>
-    <row r="214" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="1:7" ht="20.25" customHeight="1">
       <c r="A214" s="8">
         <v>212</v>
       </c>
@@ -3299,8 +3545,9 @@
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
-    </row>
-    <row r="215" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G214" s="9"/>
+    </row>
+    <row r="215" spans="1:7" ht="20.25" customHeight="1">
       <c r="A215" s="8">
         <v>213</v>
       </c>
@@ -3309,8 +3556,9 @@
       <c r="D215" s="10"/>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
-    </row>
-    <row r="216" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="1:7" ht="20.25" customHeight="1">
       <c r="A216" s="8">
         <v>214</v>
       </c>
@@ -3319,8 +3567,9 @@
       <c r="D216" s="9"/>
       <c r="E216" s="9"/>
       <c r="F216" s="9"/>
-    </row>
-    <row r="217" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G216" s="9"/>
+    </row>
+    <row r="217" spans="1:7" ht="20.25" customHeight="1">
       <c r="A217" s="8">
         <v>215</v>
       </c>
@@ -3329,8 +3578,9 @@
       <c r="D217" s="10"/>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
-    </row>
-    <row r="218" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="1:7" ht="20.25" customHeight="1">
       <c r="A218" s="8">
         <v>216</v>
       </c>
@@ -3339,8 +3589,9 @@
       <c r="D218" s="9"/>
       <c r="E218" s="9"/>
       <c r="F218" s="9"/>
-    </row>
-    <row r="219" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G218" s="9"/>
+    </row>
+    <row r="219" spans="1:7" ht="20.25" customHeight="1">
       <c r="A219" s="8">
         <v>217</v>
       </c>
@@ -3349,8 +3600,9 @@
       <c r="D219" s="10"/>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
-    </row>
-    <row r="220" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="1:7" ht="20.25" customHeight="1">
       <c r="A220" s="8">
         <v>218</v>
       </c>
@@ -3359,8 +3611,9 @@
       <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G220" s="9"/>
+    </row>
+    <row r="221" spans="1:7" ht="20.25" customHeight="1">
       <c r="A221" s="8">
         <v>219</v>
       </c>
@@ -3369,8 +3622,9 @@
       <c r="D221" s="10"/>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
-    </row>
-    <row r="222" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="1:7" ht="20.25" customHeight="1">
       <c r="A222" s="8">
         <v>220</v>
       </c>
@@ -3379,8 +3633,9 @@
       <c r="D222" s="9"/>
       <c r="E222" s="9"/>
       <c r="F222" s="9"/>
-    </row>
-    <row r="223" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G222" s="9"/>
+    </row>
+    <row r="223" spans="1:7" ht="20.25" customHeight="1">
       <c r="A223" s="8">
         <v>221</v>
       </c>
@@ -3389,8 +3644,9 @@
       <c r="D223" s="10"/>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
-    </row>
-    <row r="224" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="1:7" ht="20.25" customHeight="1">
       <c r="A224" s="8">
         <v>222</v>
       </c>
@@ -3399,8 +3655,9 @@
       <c r="D224" s="9"/>
       <c r="E224" s="9"/>
       <c r="F224" s="9"/>
-    </row>
-    <row r="225" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G224" s="9"/>
+    </row>
+    <row r="225" spans="1:7" ht="20.25" customHeight="1">
       <c r="A225" s="8">
         <v>223</v>
       </c>
@@ -3409,8 +3666,9 @@
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
-    </row>
-    <row r="226" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="1:7" ht="20.25" customHeight="1">
       <c r="A226" s="8">
         <v>224</v>
       </c>
@@ -3419,8 +3677,9 @@
       <c r="D226" s="9"/>
       <c r="E226" s="9"/>
       <c r="F226" s="9"/>
-    </row>
-    <row r="227" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G226" s="9"/>
+    </row>
+    <row r="227" spans="1:7" ht="20.25" customHeight="1">
       <c r="A227" s="8">
         <v>225</v>
       </c>
@@ -3429,8 +3688,9 @@
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
-    </row>
-    <row r="228" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="1:7" ht="20.25" customHeight="1">
       <c r="A228" s="8">
         <v>226</v>
       </c>
@@ -3439,8 +3699,9 @@
       <c r="D228" s="9"/>
       <c r="E228" s="9"/>
       <c r="F228" s="9"/>
-    </row>
-    <row r="229" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G228" s="9"/>
+    </row>
+    <row r="229" spans="1:7" ht="20.25" customHeight="1">
       <c r="A229" s="8">
         <v>227</v>
       </c>
@@ -3449,8 +3710,9 @@
       <c r="D229" s="10"/>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
-    </row>
-    <row r="230" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="1:7" ht="20.25" customHeight="1">
       <c r="A230" s="8">
         <v>228</v>
       </c>
@@ -3459,8 +3721,9 @@
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
       <c r="F230" s="9"/>
-    </row>
-    <row r="231" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G230" s="9"/>
+    </row>
+    <row r="231" spans="1:7" ht="20.25" customHeight="1">
       <c r="A231" s="8">
         <v>229</v>
       </c>
@@ -3469,8 +3732,9 @@
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
-    </row>
-    <row r="232" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="1:7" ht="20.25" customHeight="1">
       <c r="A232" s="8">
         <v>230</v>
       </c>
@@ -3479,8 +3743,9 @@
       <c r="D232" s="9"/>
       <c r="E232" s="9"/>
       <c r="F232" s="9"/>
-    </row>
-    <row r="233" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G232" s="9"/>
+    </row>
+    <row r="233" spans="1:7" ht="20.25" customHeight="1">
       <c r="A233" s="8">
         <v>231</v>
       </c>
@@ -3489,8 +3754,9 @@
       <c r="D233" s="10"/>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
-    </row>
-    <row r="234" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G233" s="10"/>
+    </row>
+    <row r="234" spans="1:7" ht="20.25" customHeight="1">
       <c r="A234" s="8">
         <v>232</v>
       </c>
@@ -3499,8 +3765,9 @@
       <c r="D234" s="9"/>
       <c r="E234" s="9"/>
       <c r="F234" s="9"/>
-    </row>
-    <row r="235" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G234" s="9"/>
+    </row>
+    <row r="235" spans="1:7" ht="20.25" customHeight="1">
       <c r="A235" s="8">
         <v>233</v>
       </c>
@@ -3509,8 +3776,9 @@
       <c r="D235" s="10"/>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
-    </row>
-    <row r="236" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="1:7" ht="20.25" customHeight="1">
       <c r="A236" s="8">
         <v>234</v>
       </c>
@@ -3519,8 +3787,9 @@
       <c r="D236" s="9"/>
       <c r="E236" s="9"/>
       <c r="F236" s="9"/>
-    </row>
-    <row r="237" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G236" s="9"/>
+    </row>
+    <row r="237" spans="1:7" ht="20.25" customHeight="1">
       <c r="A237" s="8">
         <v>235</v>
       </c>
@@ -3529,8 +3798,9 @@
       <c r="D237" s="10"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
-    </row>
-    <row r="238" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="1:7" ht="20.25" customHeight="1">
       <c r="A238" s="8">
         <v>236</v>
       </c>
@@ -3539,8 +3809,9 @@
       <c r="D238" s="9"/>
       <c r="E238" s="9"/>
       <c r="F238" s="9"/>
-    </row>
-    <row r="239" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:7" ht="20.25" customHeight="1">
       <c r="A239" s="8">
         <v>237</v>
       </c>
@@ -3549,8 +3820,9 @@
       <c r="D239" s="10"/>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
-    </row>
-    <row r="240" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="1:7" ht="20.25" customHeight="1">
       <c r="A240" s="8">
         <v>238</v>
       </c>
@@ -3559,8 +3831,9 @@
       <c r="D240" s="9"/>
       <c r="E240" s="9"/>
       <c r="F240" s="9"/>
-    </row>
-    <row r="241" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G240" s="9"/>
+    </row>
+    <row r="241" spans="1:7" ht="20.25" customHeight="1">
       <c r="A241" s="8">
         <v>239</v>
       </c>
@@ -3569,8 +3842,9 @@
       <c r="D241" s="10"/>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
-    </row>
-    <row r="242" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="1:7" ht="20.25" customHeight="1">
       <c r="A242" s="8">
         <v>240</v>
       </c>
@@ -3579,8 +3853,9 @@
       <c r="D242" s="9"/>
       <c r="E242" s="9"/>
       <c r="F242" s="9"/>
-    </row>
-    <row r="243" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G242" s="9"/>
+    </row>
+    <row r="243" spans="1:7" ht="20.25" customHeight="1">
       <c r="A243" s="8">
         <v>241</v>
       </c>
@@ -3589,8 +3864,9 @@
       <c r="D243" s="10"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
-    </row>
-    <row r="244" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G243" s="10"/>
+    </row>
+    <row r="244" spans="1:7" ht="20.25" customHeight="1">
       <c r="A244" s="8">
         <v>242</v>
       </c>
@@ -3599,8 +3875,9 @@
       <c r="D244" s="9"/>
       <c r="E244" s="9"/>
       <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G244" s="9"/>
+    </row>
+    <row r="245" spans="1:7" ht="20.25" customHeight="1">
       <c r="A245" s="8">
         <v>243</v>
       </c>
@@ -3609,8 +3886,9 @@
       <c r="D245" s="10"/>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
-    </row>
-    <row r="246" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="1:7" ht="20.25" customHeight="1">
       <c r="A246" s="8">
         <v>244</v>
       </c>
@@ -3619,8 +3897,9 @@
       <c r="D246" s="9"/>
       <c r="E246" s="9"/>
       <c r="F246" s="9"/>
-    </row>
-    <row r="247" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G246" s="9"/>
+    </row>
+    <row r="247" spans="1:7" ht="20.25" customHeight="1">
       <c r="A247" s="8">
         <v>245</v>
       </c>
@@ -3629,8 +3908,9 @@
       <c r="D247" s="10"/>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
-    </row>
-    <row r="248" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="1:7" ht="20.25" customHeight="1">
       <c r="A248" s="8">
         <v>246</v>
       </c>
@@ -3639,8 +3919,9 @@
       <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9"/>
-    </row>
-    <row r="249" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G248" s="9"/>
+    </row>
+    <row r="249" spans="1:7" ht="20.25" customHeight="1">
       <c r="A249" s="8">
         <v>247</v>
       </c>
@@ -3649,8 +3930,9 @@
       <c r="D249" s="10"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
-    </row>
-    <row r="250" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G249" s="10"/>
+    </row>
+    <row r="250" spans="1:7" ht="20.25" customHeight="1">
       <c r="A250" s="8">
         <v>248</v>
       </c>
@@ -3659,8 +3941,9 @@
       <c r="D250" s="9"/>
       <c r="E250" s="9"/>
       <c r="F250" s="9"/>
-    </row>
-    <row r="251" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G250" s="9"/>
+    </row>
+    <row r="251" spans="1:7" ht="20.25" customHeight="1">
       <c r="A251" s="8">
         <v>249</v>
       </c>
@@ -3669,8 +3952,9 @@
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
-    </row>
-    <row r="252" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="1:7" ht="20.25" customHeight="1">
       <c r="A252" s="8">
         <v>250</v>
       </c>
@@ -3679,8 +3963,9 @@
       <c r="D252" s="9"/>
       <c r="E252" s="9"/>
       <c r="F252" s="9"/>
-    </row>
-    <row r="253" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G252" s="9"/>
+    </row>
+    <row r="253" spans="1:7" ht="20.25" customHeight="1">
       <c r="A253" s="8">
         <v>251</v>
       </c>
@@ -3689,8 +3974,9 @@
       <c r="D253" s="10"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
-    </row>
-    <row r="254" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G253" s="10"/>
+    </row>
+    <row r="254" spans="1:7" ht="20.25" customHeight="1">
       <c r="A254" s="8">
         <v>252</v>
       </c>
@@ -3699,8 +3985,9 @@
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
       <c r="F254" s="9"/>
-    </row>
-    <row r="255" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G254" s="9"/>
+    </row>
+    <row r="255" spans="1:7" ht="20.25" customHeight="1">
       <c r="A255" s="8">
         <v>253</v>
       </c>
@@ -3709,8 +3996,9 @@
       <c r="D255" s="10"/>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
-    </row>
-    <row r="256" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="1:7" ht="20.25" customHeight="1">
       <c r="A256" s="8">
         <v>254</v>
       </c>
@@ -3719,8 +4007,9 @@
       <c r="D256" s="9"/>
       <c r="E256" s="9"/>
       <c r="F256" s="9"/>
-    </row>
-    <row r="257" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G256" s="9"/>
+    </row>
+    <row r="257" spans="1:7" ht="20.25" customHeight="1">
       <c r="A257" s="8">
         <v>255</v>
       </c>
@@ -3729,8 +4018,9 @@
       <c r="D257" s="10"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
-    </row>
-    <row r="258" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="1:7" ht="20.25" customHeight="1">
       <c r="A258" s="8">
         <v>256</v>
       </c>
@@ -3739,8 +4029,9 @@
       <c r="D258" s="9"/>
       <c r="E258" s="9"/>
       <c r="F258" s="9"/>
-    </row>
-    <row r="259" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G258" s="9"/>
+    </row>
+    <row r="259" spans="1:7" ht="20.25" customHeight="1">
       <c r="A259" s="8">
         <v>257</v>
       </c>
@@ -3749,8 +4040,9 @@
       <c r="D259" s="10"/>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
-    </row>
-    <row r="260" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G259" s="10"/>
+    </row>
+    <row r="260" spans="1:7" ht="20.25" customHeight="1">
       <c r="A260" s="8">
         <v>258</v>
       </c>
@@ -3759,8 +4051,9 @@
       <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9"/>
-    </row>
-    <row r="261" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G260" s="9"/>
+    </row>
+    <row r="261" spans="1:7" ht="20.25" customHeight="1">
       <c r="A261" s="8">
         <v>259</v>
       </c>
@@ -3769,8 +4062,9 @@
       <c r="D261" s="10"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-    </row>
-    <row r="262" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="1:7" ht="20.25" customHeight="1">
       <c r="A262" s="8">
         <v>260</v>
       </c>
@@ -3779,8 +4073,9 @@
       <c r="D262" s="9"/>
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
-    </row>
-    <row r="263" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G262" s="9"/>
+    </row>
+    <row r="263" spans="1:7" ht="20.25" customHeight="1">
       <c r="A263" s="8">
         <v>261</v>
       </c>
@@ -3789,8 +4084,9 @@
       <c r="D263" s="10"/>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
-    </row>
-    <row r="264" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G263" s="10"/>
+    </row>
+    <row r="264" spans="1:7" ht="20.25" customHeight="1">
       <c r="A264" s="8">
         <v>262</v>
       </c>
@@ -3799,8 +4095,9 @@
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
-    </row>
-    <row r="265" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G264" s="9"/>
+    </row>
+    <row r="265" spans="1:7" ht="20.25" customHeight="1">
       <c r="A265" s="8">
         <v>263</v>
       </c>
@@ -3809,8 +4106,9 @@
       <c r="D265" s="10"/>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
-    </row>
-    <row r="266" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G265" s="10"/>
+    </row>
+    <row r="266" spans="1:7" ht="20.25" customHeight="1">
       <c r="A266" s="8">
         <v>264</v>
       </c>
@@ -3819,8 +4117,9 @@
       <c r="D266" s="9"/>
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
-    </row>
-    <row r="267" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G266" s="9"/>
+    </row>
+    <row r="267" spans="1:7" ht="20.25" customHeight="1">
       <c r="A267" s="8">
         <v>265</v>
       </c>
@@ -3829,8 +4128,9 @@
       <c r="D267" s="10"/>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
-    </row>
-    <row r="268" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G267" s="10"/>
+    </row>
+    <row r="268" spans="1:7" ht="20.25" customHeight="1">
       <c r="A268" s="8">
         <v>266</v>
       </c>
@@ -3839,8 +4139,9 @@
       <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
-    </row>
-    <row r="269" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G268" s="9"/>
+    </row>
+    <row r="269" spans="1:7" ht="20.25" customHeight="1">
       <c r="A269" s="8">
         <v>267</v>
       </c>
@@ -3849,8 +4150,9 @@
       <c r="D269" s="10"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
-    </row>
-    <row r="270" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G269" s="10"/>
+    </row>
+    <row r="270" spans="1:7" ht="20.25" customHeight="1">
       <c r="A270" s="8">
         <v>268</v>
       </c>
@@ -3859,8 +4161,9 @@
       <c r="D270" s="9"/>
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
-    </row>
-    <row r="271" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G270" s="9"/>
+    </row>
+    <row r="271" spans="1:7" ht="20.25" customHeight="1">
       <c r="A271" s="8">
         <v>269</v>
       </c>
@@ -3869,8 +4172,9 @@
       <c r="D271" s="10"/>
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
-    </row>
-    <row r="272" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G271" s="10"/>
+    </row>
+    <row r="272" spans="1:7" ht="20.25" customHeight="1">
       <c r="A272" s="8">
         <v>270</v>
       </c>
@@ -3879,8 +4183,9 @@
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
       <c r="F272" s="9"/>
-    </row>
-    <row r="273" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G272" s="9"/>
+    </row>
+    <row r="273" spans="1:7" ht="20.25" customHeight="1">
       <c r="A273" s="8">
         <v>271</v>
       </c>
@@ -3889,8 +4194,9 @@
       <c r="D273" s="10"/>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
-    </row>
-    <row r="274" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G273" s="10"/>
+    </row>
+    <row r="274" spans="1:7" ht="20.25" customHeight="1">
       <c r="A274" s="8">
         <v>272</v>
       </c>
@@ -3899,8 +4205,9 @@
       <c r="D274" s="9"/>
       <c r="E274" s="9"/>
       <c r="F274" s="9"/>
-    </row>
-    <row r="275" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G274" s="9"/>
+    </row>
+    <row r="275" spans="1:7" ht="20.25" customHeight="1">
       <c r="A275" s="8">
         <v>273</v>
       </c>
@@ -3909,8 +4216,9 @@
       <c r="D275" s="10"/>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
-    </row>
-    <row r="276" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G275" s="10"/>
+    </row>
+    <row r="276" spans="1:7" ht="20.25" customHeight="1">
       <c r="A276" s="8">
         <v>274</v>
       </c>
@@ -3919,8 +4227,9 @@
       <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9"/>
-    </row>
-    <row r="277" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G276" s="9"/>
+    </row>
+    <row r="277" spans="1:7" ht="20.25" customHeight="1">
       <c r="A277" s="8">
         <v>275</v>
       </c>
@@ -3929,8 +4238,9 @@
       <c r="D277" s="10"/>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
-    </row>
-    <row r="278" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G277" s="10"/>
+    </row>
+    <row r="278" spans="1:7" ht="20.25" customHeight="1">
       <c r="A278" s="8">
         <v>276</v>
       </c>
@@ -3939,8 +4249,9 @@
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
       <c r="F278" s="9"/>
-    </row>
-    <row r="279" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G278" s="9"/>
+    </row>
+    <row r="279" spans="1:7" ht="20.25" customHeight="1">
       <c r="A279" s="8">
         <v>277</v>
       </c>
@@ -3949,8 +4260,9 @@
       <c r="D279" s="10"/>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
-    </row>
-    <row r="280" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G279" s="10"/>
+    </row>
+    <row r="280" spans="1:7" ht="20.25" customHeight="1">
       <c r="A280" s="8">
         <v>278</v>
       </c>
@@ -3959,8 +4271,9 @@
       <c r="D280" s="9"/>
       <c r="E280" s="9"/>
       <c r="F280" s="9"/>
-    </row>
-    <row r="281" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G280" s="9"/>
+    </row>
+    <row r="281" spans="1:7" ht="20.25" customHeight="1">
       <c r="A281" s="8">
         <v>279</v>
       </c>
@@ -3969,8 +4282,9 @@
       <c r="D281" s="10"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
-    </row>
-    <row r="282" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="1:7" ht="20.25" customHeight="1">
       <c r="A282" s="8">
         <v>280</v>
       </c>
@@ -3979,8 +4293,9 @@
       <c r="D282" s="9"/>
       <c r="E282" s="9"/>
       <c r="F282" s="9"/>
-    </row>
-    <row r="283" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G282" s="9"/>
+    </row>
+    <row r="283" spans="1:7" ht="20.25" customHeight="1">
       <c r="A283" s="8">
         <v>281</v>
       </c>
@@ -3989,8 +4304,9 @@
       <c r="D283" s="10"/>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
-    </row>
-    <row r="284" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G283" s="10"/>
+    </row>
+    <row r="284" spans="1:7" ht="20.25" customHeight="1">
       <c r="A284" s="8">
         <v>282</v>
       </c>
@@ -3999,8 +4315,9 @@
       <c r="D284" s="9"/>
       <c r="E284" s="9"/>
       <c r="F284" s="9"/>
-    </row>
-    <row r="285" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G284" s="9"/>
+    </row>
+    <row r="285" spans="1:7" ht="20.25" customHeight="1">
       <c r="A285" s="8">
         <v>283</v>
       </c>
@@ -4009,8 +4326,9 @@
       <c r="D285" s="10"/>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
-    </row>
-    <row r="286" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G285" s="10"/>
+    </row>
+    <row r="286" spans="1:7" ht="20.25" customHeight="1">
       <c r="A286" s="8">
         <v>284</v>
       </c>
@@ -4019,8 +4337,9 @@
       <c r="D286" s="9"/>
       <c r="E286" s="9"/>
       <c r="F286" s="9"/>
-    </row>
-    <row r="287" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G286" s="9"/>
+    </row>
+    <row r="287" spans="1:7" ht="20.25" customHeight="1">
       <c r="A287" s="8">
         <v>285</v>
       </c>
@@ -4029,8 +4348,9 @@
       <c r="D287" s="10"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
-    </row>
-    <row r="288" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G287" s="10"/>
+    </row>
+    <row r="288" spans="1:7" ht="20.25" customHeight="1">
       <c r="A288" s="8">
         <v>286</v>
       </c>
@@ -4039,8 +4359,9 @@
       <c r="D288" s="9"/>
       <c r="E288" s="9"/>
       <c r="F288" s="9"/>
-    </row>
-    <row r="289" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G288" s="9"/>
+    </row>
+    <row r="289" spans="1:7" ht="20.25" customHeight="1">
       <c r="A289" s="8">
         <v>287</v>
       </c>
@@ -4049,8 +4370,9 @@
       <c r="D289" s="10"/>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
-    </row>
-    <row r="290" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G289" s="10"/>
+    </row>
+    <row r="290" spans="1:7" ht="20.25" customHeight="1">
       <c r="A290" s="8">
         <v>288</v>
       </c>
@@ -4059,8 +4381,9 @@
       <c r="D290" s="9"/>
       <c r="E290" s="9"/>
       <c r="F290" s="9"/>
-    </row>
-    <row r="291" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G290" s="9"/>
+    </row>
+    <row r="291" spans="1:7" ht="20.25" customHeight="1">
       <c r="A291" s="8">
         <v>289</v>
       </c>
@@ -4069,8 +4392,9 @@
       <c r="D291" s="10"/>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
-    </row>
-    <row r="292" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G291" s="10"/>
+    </row>
+    <row r="292" spans="1:7" ht="20.25" customHeight="1">
       <c r="A292" s="8">
         <v>290</v>
       </c>
@@ -4079,8 +4403,9 @@
       <c r="D292" s="9"/>
       <c r="E292" s="9"/>
       <c r="F292" s="9"/>
-    </row>
-    <row r="293" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G292" s="9"/>
+    </row>
+    <row r="293" spans="1:7" ht="20.25" customHeight="1">
       <c r="A293" s="8">
         <v>291</v>
       </c>
@@ -4089,8 +4414,9 @@
       <c r="D293" s="10"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
-    </row>
-    <row r="294" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G293" s="10"/>
+    </row>
+    <row r="294" spans="1:7" ht="20.25" customHeight="1">
       <c r="A294" s="8">
         <v>292</v>
       </c>
@@ -4099,8 +4425,9 @@
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="9"/>
-    </row>
-    <row r="295" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G294" s="9"/>
+    </row>
+    <row r="295" spans="1:7" ht="20.25" customHeight="1">
       <c r="A295" s="8">
         <v>293</v>
       </c>
@@ -4109,8 +4436,9 @@
       <c r="D295" s="10"/>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
-    </row>
-    <row r="296" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G295" s="10"/>
+    </row>
+    <row r="296" spans="1:7" ht="20.25" customHeight="1">
       <c r="A296" s="8">
         <v>294</v>
       </c>
@@ -4119,8 +4447,9 @@
       <c r="D296" s="9"/>
       <c r="E296" s="9"/>
       <c r="F296" s="9"/>
-    </row>
-    <row r="297" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G296" s="9"/>
+    </row>
+    <row r="297" spans="1:7" ht="20.25" customHeight="1">
       <c r="A297" s="8">
         <v>295</v>
       </c>
@@ -4129,8 +4458,9 @@
       <c r="D297" s="10"/>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
-    </row>
-    <row r="298" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="1:7" ht="20.25" customHeight="1">
       <c r="A298" s="8">
         <v>296</v>
       </c>
@@ -4139,8 +4469,9 @@
       <c r="D298" s="9"/>
       <c r="E298" s="9"/>
       <c r="F298" s="9"/>
-    </row>
-    <row r="299" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G298" s="9"/>
+    </row>
+    <row r="299" spans="1:7" ht="20.25" customHeight="1">
       <c r="A299" s="8">
         <v>297</v>
       </c>
@@ -4149,8 +4480,9 @@
       <c r="D299" s="10"/>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
-    </row>
-    <row r="300" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="1:7" ht="20.25" customHeight="1">
       <c r="A300" s="8">
         <v>298</v>
       </c>
@@ -4159,8 +4491,9 @@
       <c r="D300" s="9"/>
       <c r="E300" s="9"/>
       <c r="F300" s="9"/>
-    </row>
-    <row r="301" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G300" s="9"/>
+    </row>
+    <row r="301" spans="1:7" ht="20.25" customHeight="1">
       <c r="A301" s="8">
         <v>299</v>
       </c>
@@ -4169,8 +4502,9 @@
       <c r="D301" s="10"/>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
-    </row>
-    <row r="302" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G301" s="10"/>
+    </row>
+    <row r="302" spans="1:7" ht="20.25" customHeight="1">
       <c r="A302" s="8">
         <v>300</v>
       </c>
@@ -4179,8 +4513,9 @@
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9"/>
-    </row>
-    <row r="303" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G302" s="9"/>
+    </row>
+    <row r="303" spans="1:7" ht="20.25" customHeight="1">
       <c r="A303" s="8">
         <v>301</v>
       </c>
@@ -4189,8 +4524,9 @@
       <c r="D303" s="10"/>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
-    </row>
-    <row r="304" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G303" s="10"/>
+    </row>
+    <row r="304" spans="1:7" ht="20.25" customHeight="1">
       <c r="A304" s="8">
         <v>302</v>
       </c>
@@ -4199,8 +4535,9 @@
       <c r="D304" s="9"/>
       <c r="E304" s="9"/>
       <c r="F304" s="9"/>
-    </row>
-    <row r="305" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G304" s="9"/>
+    </row>
+    <row r="305" spans="1:7" ht="20.25" customHeight="1">
       <c r="A305" s="8">
         <v>303</v>
       </c>
@@ -4209,8 +4546,9 @@
       <c r="D305" s="10"/>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
-    </row>
-    <row r="306" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G305" s="10"/>
+    </row>
+    <row r="306" spans="1:7" ht="20.25" customHeight="1">
       <c r="A306" s="8">
         <v>304</v>
       </c>
@@ -4219,8 +4557,9 @@
       <c r="D306" s="9"/>
       <c r="E306" s="9"/>
       <c r="F306" s="9"/>
-    </row>
-    <row r="307" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G306" s="9"/>
+    </row>
+    <row r="307" spans="1:7" ht="20.25" customHeight="1">
       <c r="A307" s="8">
         <v>305</v>
       </c>
@@ -4229,158 +4568,178 @@
       <c r="D307" s="10"/>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
-    </row>
-    <row r="308" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G307" s="10"/>
+    </row>
+    <row r="308" spans="1:7" ht="20.25" customHeight="1">
       <c r="A308" s="8">
         <v>306</v>
       </c>
       <c r="D308" s="9"/>
       <c r="E308" s="9"/>
       <c r="F308" s="9"/>
-    </row>
-    <row r="309" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G308" s="9"/>
+    </row>
+    <row r="309" spans="1:7" ht="20.25" customHeight="1">
       <c r="A309" s="8">
         <v>307</v>
       </c>
       <c r="D309" s="10"/>
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
-    </row>
-    <row r="310" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G309" s="10"/>
+    </row>
+    <row r="310" spans="1:7" ht="20.25" customHeight="1">
       <c r="A310" s="8">
         <v>308</v>
       </c>
       <c r="D310" s="9"/>
       <c r="E310" s="9"/>
       <c r="F310" s="9"/>
-    </row>
-    <row r="311" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G310" s="9"/>
+    </row>
+    <row r="311" spans="1:7" ht="20.25" customHeight="1">
       <c r="A311" s="8">
         <v>309</v>
       </c>
       <c r="D311" s="10"/>
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
-    </row>
-    <row r="312" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G311" s="10"/>
+    </row>
+    <row r="312" spans="1:7" ht="20.25" customHeight="1">
       <c r="A312" s="8">
         <v>310</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
       <c r="F312" s="9"/>
-    </row>
-    <row r="313" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G312" s="9"/>
+    </row>
+    <row r="313" spans="1:7" ht="20.25" customHeight="1">
       <c r="A313" s="8">
         <v>311</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
-    </row>
-    <row r="314" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G313" s="10"/>
+    </row>
+    <row r="314" spans="1:7" ht="20.25" customHeight="1">
       <c r="A314" s="8">
         <v>312</v>
       </c>
       <c r="D314" s="9"/>
       <c r="E314" s="9"/>
       <c r="F314" s="9"/>
-    </row>
-    <row r="315" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G314" s="9"/>
+    </row>
+    <row r="315" spans="1:7" ht="20.25" customHeight="1">
       <c r="A315" s="8">
         <v>313</v>
       </c>
       <c r="D315" s="10"/>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
-    </row>
-    <row r="316" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G315" s="10"/>
+    </row>
+    <row r="316" spans="1:7" ht="20.25" customHeight="1">
       <c r="A316" s="8">
         <v>314</v>
       </c>
       <c r="D316" s="9"/>
       <c r="E316" s="9"/>
       <c r="F316" s="9"/>
-    </row>
-    <row r="317" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G316" s="9"/>
+    </row>
+    <row r="317" spans="1:7" ht="20.25" customHeight="1">
       <c r="A317" s="8">
         <v>315</v>
       </c>
       <c r="D317" s="10"/>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
-    </row>
-    <row r="318" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G317" s="10"/>
+    </row>
+    <row r="318" spans="1:7" ht="20.25" customHeight="1">
       <c r="A318" s="8">
         <v>316</v>
       </c>
       <c r="D318" s="9"/>
       <c r="E318" s="9"/>
       <c r="F318" s="9"/>
-    </row>
-    <row r="319" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G318" s="9"/>
+    </row>
+    <row r="319" spans="1:7" ht="20.25" customHeight="1">
       <c r="A319" s="8">
         <v>317</v>
       </c>
       <c r="D319" s="10"/>
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
-    </row>
-    <row r="320" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G319" s="10"/>
+    </row>
+    <row r="320" spans="1:7" ht="20.25" customHeight="1">
       <c r="A320" s="8">
         <v>318</v>
       </c>
       <c r="D320" s="9"/>
       <c r="E320" s="9"/>
       <c r="F320" s="9"/>
-    </row>
-    <row r="321" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G320" s="9"/>
+    </row>
+    <row r="321" spans="1:7" ht="20.25" customHeight="1">
       <c r="A321" s="8">
         <v>319</v>
       </c>
       <c r="D321" s="10"/>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
-    </row>
-    <row r="322" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G321" s="10"/>
+    </row>
+    <row r="322" spans="1:7" ht="20.25" customHeight="1">
       <c r="A322" s="8">
         <v>320</v>
       </c>
       <c r="D322" s="9"/>
       <c r="E322" s="9"/>
       <c r="F322" s="9"/>
-    </row>
-    <row r="323" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G322" s="9"/>
+    </row>
+    <row r="323" spans="1:7" ht="20.25" customHeight="1">
       <c r="A323" s="8">
         <v>321</v>
       </c>
       <c r="D323" s="10"/>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
-    </row>
-    <row r="324" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G323" s="10"/>
+    </row>
+    <row r="324" spans="1:7" ht="20.25" customHeight="1">
       <c r="A324" s="8">
         <v>322</v>
       </c>
       <c r="D324" s="9"/>
       <c r="E324" s="9"/>
       <c r="F324" s="9"/>
-    </row>
-    <row r="325" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G324" s="9"/>
+    </row>
+    <row r="325" spans="1:7" ht="20.25" customHeight="1">
       <c r="A325" s="8">
         <v>323</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
-    </row>
-    <row r="326" spans="1:6" ht="20.25" customHeight="1">
+      <c r="G325" s="10"/>
+    </row>
+    <row r="326" spans="1:7" ht="20.25" customHeight="1">
       <c r="A326" s="8">
         <v>324</v>
       </c>
       <c r="D326" s="9"/>
       <c r="E326" s="9"/>
       <c r="F326" s="9"/>
+      <c r="G326" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H326"/>
@@ -7588,7 +7947,7 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+      <selection activeCell="E2" sqref="E2:E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15"/>
@@ -7600,7 +7959,7 @@
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -7611,12 +7970,15 @@
       <c r="D1" s="27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E1" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="29" t="s">
@@ -7626,12 +7988,16 @@
         <f>IF(ISNA(VLOOKUP(C2, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E2" s="35" t="e">
+        <f>VLOOKUP($C2, svod!$B$2:$H$200,6,0)-VLOOKUP($C2, svod!$B$2:$H$200,3,0)-VLOOKUP($C2, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
@@ -7639,8 +8005,12 @@
         <f>IF(ISNA(VLOOKUP(C3, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E3" s="35" t="e">
+        <f>VLOOKUP($C3, svod!$B$2:$H$200,6,0)-VLOOKUP($C3, svod!$B$2:$H$200,3,0)-VLOOKUP($C3, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -7654,12 +8024,16 @@
         <f>IF(ISNA(VLOOKUP(C4, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E4" s="35" t="e">
+        <f>VLOOKUP($C4, svod!$B$2:$H$200,6,0)-VLOOKUP($C4, svod!$B$2:$H$200,3,0)-VLOOKUP($C4, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -7669,12 +8043,16 @@
         <f>IF(ISNA(VLOOKUP(C5, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E5" s="35" t="e">
+        <f>VLOOKUP($C5, svod!$B$2:$H$200,6,0)-VLOOKUP($C5, svod!$B$2:$H$200,3,0)-VLOOKUP($C5, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="33">
         <v>5</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="31" t="s">
         <v>29</v>
       </c>
@@ -7682,12 +8060,16 @@
         <f>IF(ISNA(VLOOKUP(C6, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E6" s="35" t="e">
+        <f>VLOOKUP($C6, svod!$B$2:$H$200,6,0)-VLOOKUP($C6, svod!$B$2:$H$200,3,0)-VLOOKUP($C6, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="31" t="s">
         <v>41</v>
       </c>
@@ -7695,12 +8077,16 @@
         <f>IF(ISNA(VLOOKUP(C7, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E7" s="35" t="e">
+        <f>VLOOKUP($C7, svod!$B$2:$H$200,6,0)-VLOOKUP($C7, svod!$B$2:$H$200,3,0)-VLOOKUP($C7, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="33">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="31" t="s">
         <v>42</v>
       </c>
@@ -7708,12 +8094,16 @@
         <f>IF(ISNA(VLOOKUP(C8, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E8" s="35" t="e">
+        <f>VLOOKUP($C8, svod!$B$2:$H$200,6,0)-VLOOKUP($C8, svod!$B$2:$H$200,3,0)-VLOOKUP($C8, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="31" t="s">
         <v>89</v>
       </c>
@@ -7721,12 +8111,16 @@
         <f>IF(ISNA(VLOOKUP(C9, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E9" s="35" t="e">
+        <f>VLOOKUP($C9, svod!$B$2:$H$200,6,0)-VLOOKUP($C9, svod!$B$2:$H$200,3,0)-VLOOKUP($C9, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="33">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="31" t="s">
         <v>111</v>
       </c>
@@ -7734,12 +8128,16 @@
         <f>IF(ISNA(VLOOKUP(C10, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E10" s="35" t="e">
+        <f>VLOOKUP($C10, svod!$B$2:$H$200,6,0)-VLOOKUP($C10, svod!$B$2:$H$200,3,0)-VLOOKUP($C10, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="31" t="s">
         <v>90</v>
       </c>
@@ -7747,12 +8145,16 @@
         <f>IF(ISNA(VLOOKUP(C11, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E11" s="35" t="e">
+        <f>VLOOKUP($C11, svod!$B$2:$H$200,6,0)-VLOOKUP($C11, svod!$B$2:$H$200,3,0)-VLOOKUP($C11, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="31" t="s">
         <v>91</v>
       </c>
@@ -7760,12 +8162,16 @@
         <f>IF(ISNA(VLOOKUP(C12, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E12" s="35" t="e">
+        <f>VLOOKUP($C12, svod!$B$2:$H$200,6,0)-VLOOKUP($C12, svod!$B$2:$H$200,3,0)-VLOOKUP($C12, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="31" t="s">
         <v>57</v>
       </c>
@@ -7773,12 +8179,16 @@
         <f>IF(ISNA(VLOOKUP(C13, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E13" s="35" t="e">
+        <f>VLOOKUP($C13, svod!$B$2:$H$200,6,0)-VLOOKUP($C13, svod!$B$2:$H$200,3,0)-VLOOKUP($C13, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="33">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C14" s="29" t="s">
@@ -7788,12 +8198,16 @@
         <f>IF(ISNA(VLOOKUP(C14, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E14" s="35" t="e">
+        <f>VLOOKUP($C14, svod!$B$2:$H$200,6,0)-VLOOKUP($C14, svod!$B$2:$H$200,3,0)-VLOOKUP($C14, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="29" t="s">
         <v>92</v>
       </c>
@@ -7801,51 +8215,67 @@
         <f>IF(ISNA(VLOOKUP(C15, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E15" s="35" t="e">
+        <f>VLOOKUP($C15, svod!$B$2:$H$200,6,0)-VLOOKUP($C15, svod!$B$2:$H$200,3,0)-VLOOKUP($C15, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="29" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C16, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E16" s="35" t="e">
+        <f>VLOOKUP($C16, svod!$B$2:$H$200,6,0)-VLOOKUP($C16, svod!$B$2:$H$200,3,0)-VLOOKUP($C16, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="29" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C17, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E17" s="35" t="e">
+        <f>VLOOKUP($C17, svod!$B$2:$H$200,6,0)-VLOOKUP($C17, svod!$B$2:$H$200,3,0)-VLOOKUP($C17, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="33">
         <v>17</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C18, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E18" s="35" t="e">
+        <f>VLOOKUP($C18, svod!$B$2:$H$200,6,0)-VLOOKUP($C18, svod!$B$2:$H$200,3,0)-VLOOKUP($C18, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="39" t="s">
         <v>73</v>
       </c>
       <c r="C19" s="29" t="s">
@@ -7854,39 +8284,51 @@
       <c r="D19" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C19, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E19" s="35" t="e">
+        <f>VLOOKUP($C19, svod!$B$2:$H$200,6,0)-VLOOKUP($C19, svod!$B$2:$H$200,3,0)-VLOOKUP($C19, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="33">
         <v>19</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="29" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C20, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E20" s="35" t="e">
+        <f>VLOOKUP($C20, svod!$B$2:$H$200,6,0)-VLOOKUP($C20, svod!$B$2:$H$200,3,0)-VLOOKUP($C20, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="33">
         <v>20</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="29" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C21, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E21" s="35" t="e">
+        <f>VLOOKUP($C21, svod!$B$2:$H$200,6,0)-VLOOKUP($C21, svod!$B$2:$H$200,3,0)-VLOOKUP($C21, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="33">
         <v>21</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -7895,26 +8337,34 @@
       <c r="D22" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C22, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E22" s="35" t="e">
+        <f>VLOOKUP($C22, svod!$B$2:$H$200,6,0)-VLOOKUP($C22, svod!$B$2:$H$200,3,0)-VLOOKUP($C22, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="33">
         <v>22</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D23" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C23, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E23" s="35" t="e">
+        <f>VLOOKUP($C23, svod!$B$2:$H$200,6,0)-VLOOKUP($C23, svod!$B$2:$H$200,3,0)-VLOOKUP($C23, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="33">
         <v>23</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="29" t="s">
         <v>112</v>
       </c>
@@ -7922,65 +8372,84 @@
         <f>IF(ISNA(VLOOKUP(C24, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="35" t="e">
+        <f>VLOOKUP($C24, svod!$B$2:$H$200,6,0)-VLOOKUP($C24, svod!$B$2:$H$200,3,0)-VLOOKUP($C24, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="33">
         <v>24</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C25, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E25" s="35" t="e">
+        <f>VLOOKUP($C25, svod!$B$2:$H$200,6,0)-VLOOKUP($C25, svod!$B$2:$H$200,3,0)-VLOOKUP($C25, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C26, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E26" s="35" t="e">
+        <f>VLOOKUP($C26, svod!$B$2:$H$200,6,0)-VLOOKUP($C26, svod!$B$2:$H$200,3,0)-VLOOKUP($C26, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="33">
         <v>26</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="29" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C27, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E27" s="35" t="e">
+        <f>VLOOKUP($C27, svod!$B$2:$H$200,6,0)-VLOOKUP($C27, svod!$B$2:$H$200,3,0)-VLOOKUP($C27, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="33">
         <v>27</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C28, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E28" s="35" t="e">
+        <f>VLOOKUP($C28, svod!$B$2:$H$200,6,0)-VLOOKUP($C28, svod!$B$2:$H$200,3,0)-VLOOKUP($C28, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="33">
         <v>28</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="39" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="29" t="s">
@@ -7989,39 +8458,51 @@
       <c r="D29" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C29, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E29" s="35" t="e">
+        <f>VLOOKUP($C29, svod!$B$2:$H$200,6,0)-VLOOKUP($C29, svod!$B$2:$H$200,3,0)-VLOOKUP($C29, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="33">
         <v>29</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="29" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C30, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E30" s="35" t="e">
+        <f>VLOOKUP($C30, svod!$B$2:$H$200,6,0)-VLOOKUP($C30, svod!$B$2:$H$200,3,0)-VLOOKUP($C30, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="33">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D31" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C31, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E31" s="35" t="e">
+        <f>VLOOKUP($C31, svod!$B$2:$H$200,6,0)-VLOOKUP($C31, svod!$B$2:$H$200,3,0)-VLOOKUP($C31, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="33">
         <v>31</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="29" t="s">
@@ -8031,12 +8512,16 @@
         <f>IF(ISNA(VLOOKUP(C32, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E32" s="35" t="e">
+        <f>VLOOKUP($C32, svod!$B$2:$H$200,6,0)-VLOOKUP($C32, svod!$B$2:$H$200,3,0)-VLOOKUP($C32, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="33">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="29" t="s">
         <v>38</v>
       </c>
@@ -8044,12 +8529,16 @@
         <f>IF(ISNA(VLOOKUP(C33, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E33" s="35" t="e">
+        <f>VLOOKUP($C33, svod!$B$2:$H$200,6,0)-VLOOKUP($C33, svod!$B$2:$H$200,3,0)-VLOOKUP($C33, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="33">
         <v>33</v>
       </c>
-      <c r="B34" s="38"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="29" t="s">
         <v>44</v>
       </c>
@@ -8057,8 +8546,12 @@
         <f>IF(ISNA(VLOOKUP(C34, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E34" s="35" t="e">
+        <f>VLOOKUP($C34, svod!$B$2:$H$200,6,0)-VLOOKUP($C34, svod!$B$2:$H$200,3,0)-VLOOKUP($C34, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="33">
         <v>34</v>
       </c>
@@ -8072,8 +8565,12 @@
         <f>IF(ISNA(VLOOKUP(C35, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E35" s="35" t="e">
+        <f>VLOOKUP($C35, svod!$B$2:$H$200,6,0)-VLOOKUP($C35, svod!$B$2:$H$200,3,0)-VLOOKUP($C35, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="33">
         <v>35</v>
       </c>
@@ -8087,8 +8584,12 @@
         <f>IF(ISNA(VLOOKUP(C36, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E36" s="35" t="e">
+        <f>VLOOKUP($C36, svod!$B$2:$H$200,6,0)-VLOOKUP($C36, svod!$B$2:$H$200,3,0)-VLOOKUP($C36, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="33">
         <v>36</v>
       </c>
@@ -8102,12 +8603,16 @@
         <f>IF(ISNA(VLOOKUP(C37, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E37" s="35" t="e">
+        <f>VLOOKUP($C37, svod!$B$2:$H$200,6,0)-VLOOKUP($C37, svod!$B$2:$H$200,3,0)-VLOOKUP($C37, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="33">
         <v>37</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="39" t="s">
         <v>80</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -8117,12 +8622,16 @@
         <f>IF(ISNA(VLOOKUP(C38, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E38" s="35" t="e">
+        <f>VLOOKUP($C38, svod!$B$2:$H$200,6,0)-VLOOKUP($C38, svod!$B$2:$H$200,3,0)-VLOOKUP($C38, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="33">
         <v>38</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="29" t="s">
         <v>27</v>
       </c>
@@ -8130,12 +8639,16 @@
         <f>IF(ISNA(VLOOKUP(C39, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E39" s="35" t="e">
+        <f>VLOOKUP($C39, svod!$B$2:$H$200,6,0)-VLOOKUP($C39, svod!$B$2:$H$200,3,0)-VLOOKUP($C39, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="33">
         <v>39</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="29" t="s">
         <v>93</v>
       </c>
@@ -8143,12 +8656,16 @@
         <f>IF(ISNA(VLOOKUP(C40, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E40" s="35" t="e">
+        <f>VLOOKUP($C40, svod!$B$2:$H$200,6,0)-VLOOKUP($C40, svod!$B$2:$H$200,3,0)-VLOOKUP($C40, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="33">
         <v>40</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="29" t="s">
         <v>94</v>
       </c>
@@ -8156,12 +8673,16 @@
         <f>IF(ISNA(VLOOKUP(C41, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E41" s="35" t="e">
+        <f>VLOOKUP($C41, svod!$B$2:$H$200,6,0)-VLOOKUP($C41, svod!$B$2:$H$200,3,0)-VLOOKUP($C41, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="33">
         <v>41</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="29" t="s">
         <v>115</v>
       </c>
@@ -8169,12 +8690,16 @@
         <f>IF(ISNA(VLOOKUP(C42, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E42" s="35" t="e">
+        <f>VLOOKUP($C42, svod!$B$2:$H$200,6,0)-VLOOKUP($C42, svod!$B$2:$H$200,3,0)-VLOOKUP($C42, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="33">
         <v>42</v>
       </c>
-      <c r="B43" s="38"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="29" t="s">
         <v>114</v>
       </c>
@@ -8182,12 +8707,16 @@
         <f>IF(ISNA(VLOOKUP(C43, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E43" s="35" t="e">
+        <f>VLOOKUP($C43, svod!$B$2:$H$200,6,0)-VLOOKUP($C43, svod!$B$2:$H$200,3,0)-VLOOKUP($C43, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A44" s="33">
         <v>43</v>
       </c>
-      <c r="B44" s="38"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="29" t="s">
         <v>116</v>
       </c>
@@ -8195,12 +8724,16 @@
         <f>IF(ISNA(VLOOKUP(C44, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E44" s="35" t="e">
+        <f>VLOOKUP($C44, svod!$B$2:$H$200,6,0)-VLOOKUP($C44, svod!$B$2:$H$200,3,0)-VLOOKUP($C44, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="33">
         <v>44</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="29" t="s">
         <v>95</v>
       </c>
@@ -8208,12 +8741,16 @@
         <f>IF(ISNA(VLOOKUP(C45, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E45" s="35" t="e">
+        <f>VLOOKUP($C45, svod!$B$2:$H$200,6,0)-VLOOKUP($C45, svod!$B$2:$H$200,3,0)-VLOOKUP($C45, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="33">
         <v>45</v>
       </c>
-      <c r="B46" s="38"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="29" t="s">
         <v>58</v>
       </c>
@@ -8221,12 +8758,16 @@
         <f>IF(ISNA(VLOOKUP(C46, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E46" s="35" t="e">
+        <f>VLOOKUP($C46, svod!$B$2:$H$200,6,0)-VLOOKUP($C46, svod!$B$2:$H$200,3,0)-VLOOKUP($C46, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="33">
         <v>46</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="39" t="s">
         <v>81</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -8236,12 +8777,16 @@
         <f>IF(ISNA(VLOOKUP(C47, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E47" s="35" t="e">
+        <f>VLOOKUP($C47, svod!$B$2:$H$200,6,0)-VLOOKUP($C47, svod!$B$2:$H$200,3,0)-VLOOKUP($C47, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="33">
         <v>47</v>
       </c>
-      <c r="B48" s="38"/>
+      <c r="B48" s="40"/>
       <c r="C48" s="29" t="s">
         <v>43</v>
       </c>
@@ -8249,12 +8794,16 @@
         <f>IF(ISNA(VLOOKUP(C48, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E48" s="35" t="e">
+        <f>VLOOKUP($C48, svod!$B$2:$H$200,6,0)-VLOOKUP($C48, svod!$B$2:$H$200,3,0)-VLOOKUP($C48, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="33">
         <v>48</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="40"/>
       <c r="C49" s="29" t="s">
         <v>22</v>
       </c>
@@ -8262,12 +8811,16 @@
         <f>IF(ISNA(VLOOKUP(C49, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="E49" s="35" t="e">
+        <f>VLOOKUP($C49, svod!$B$2:$H$200,6,0)-VLOOKUP($C49, svod!$B$2:$H$200,3,0)-VLOOKUP($C49, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A50" s="33">
         <v>49</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="39" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="29" t="s">
@@ -8277,12 +8830,16 @@
         <f>IF(ISNA(VLOOKUP(C50, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E50" s="35" t="e">
+        <f>VLOOKUP($C50, svod!$B$2:$H$200,6,0)-VLOOKUP($C50, svod!$B$2:$H$200,3,0)-VLOOKUP($C50, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="33">
         <v>50</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="29" t="s">
         <v>97</v>
       </c>
@@ -8290,8 +8847,12 @@
         <f>IF(ISNA(VLOOKUP(C51, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E51" s="35" t="e">
+        <f>VLOOKUP($C51, svod!$B$2:$H$200,6,0)-VLOOKUP($C51, svod!$B$2:$H$200,3,0)-VLOOKUP($C51, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="33">
         <v>51</v>
       </c>
@@ -8305,12 +8866,16 @@
         <f>IF(ISNA(VLOOKUP(C52, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E52" s="35" t="e">
+        <f>VLOOKUP($C52, svod!$B$2:$H$200,6,0)-VLOOKUP($C52, svod!$B$2:$H$200,3,0)-VLOOKUP($C52, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="33">
         <v>52</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="39" t="s">
         <v>84</v>
       </c>
       <c r="C53" s="29" t="s">
@@ -8320,12 +8885,16 @@
         <f>IF(ISNA(VLOOKUP(C53, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E53" s="35" t="e">
+        <f>VLOOKUP($C53, svod!$B$2:$H$200,6,0)-VLOOKUP($C53, svod!$B$2:$H$200,3,0)-VLOOKUP($C53, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="33">
         <v>53</v>
       </c>
-      <c r="B54" s="38"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="29" t="s">
         <v>62</v>
       </c>
@@ -8333,12 +8902,16 @@
         <f>IF(ISNA(VLOOKUP(C54, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E54" s="35" t="e">
+        <f>VLOOKUP($C54, svod!$B$2:$H$200,6,0)-VLOOKUP($C54, svod!$B$2:$H$200,3,0)-VLOOKUP($C54, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="33">
         <v>54</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="29" t="s">
@@ -8348,12 +8921,16 @@
         <f>IF(ISNA(VLOOKUP(C55, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E55" s="35" t="e">
+        <f>VLOOKUP($C55, svod!$B$2:$H$200,6,0)-VLOOKUP($C55, svod!$B$2:$H$200,3,0)-VLOOKUP($C55, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="33">
         <v>55</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="40"/>
       <c r="C56" s="29" t="s">
         <v>26</v>
       </c>
@@ -8361,12 +8938,16 @@
         <f>IF(ISNA(VLOOKUP(C56, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E56" s="35" t="e">
+        <f>VLOOKUP($C56, svod!$B$2:$H$200,6,0)-VLOOKUP($C56, svod!$B$2:$H$200,3,0)-VLOOKUP($C56, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="33">
         <v>56</v>
       </c>
-      <c r="B57" s="38"/>
+      <c r="B57" s="40"/>
       <c r="C57" s="29" t="s">
         <v>31</v>
       </c>
@@ -8374,12 +8955,16 @@
         <f>IF(ISNA(VLOOKUP(C57, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E57" s="35" t="e">
+        <f>VLOOKUP($C57, svod!$B$2:$H$200,6,0)-VLOOKUP($C57, svod!$B$2:$H$200,3,0)-VLOOKUP($C57, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="33">
         <v>57</v>
       </c>
-      <c r="B58" s="38"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="29" t="s">
         <v>35</v>
       </c>
@@ -8387,12 +8972,16 @@
         <f>IF(ISNA(VLOOKUP(C58, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E58" s="35" t="e">
+        <f>VLOOKUP($C58, svod!$B$2:$H$200,6,0)-VLOOKUP($C58, svod!$B$2:$H$200,3,0)-VLOOKUP($C58, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="33">
         <v>58</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="29" t="s">
         <v>46</v>
       </c>
@@ -8400,12 +8989,16 @@
         <f>IF(ISNA(VLOOKUP(C59, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E59" s="35" t="e">
+        <f>VLOOKUP($C59, svod!$B$2:$H$200,6,0)-VLOOKUP($C59, svod!$B$2:$H$200,3,0)-VLOOKUP($C59, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="33">
         <v>59</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="39" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="29" t="s">
@@ -8415,12 +9008,16 @@
         <f>IF(ISNA(VLOOKUP(C60, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E60" s="35" t="e">
+        <f>VLOOKUP($C60, svod!$B$2:$H$200,6,0)-VLOOKUP($C60, svod!$B$2:$H$200,3,0)-VLOOKUP($C60, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="33">
         <v>60</v>
       </c>
-      <c r="B61" s="38"/>
+      <c r="B61" s="40"/>
       <c r="C61" s="29" t="s">
         <v>24</v>
       </c>
@@ -8428,12 +9025,16 @@
         <f>IF(ISNA(VLOOKUP(C61, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E61" s="35" t="e">
+        <f>VLOOKUP($C61, svod!$B$2:$H$200,6,0)-VLOOKUP($C61, svod!$B$2:$H$200,3,0)-VLOOKUP($C61, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="33">
         <v>61</v>
       </c>
-      <c r="B62" s="38"/>
+      <c r="B62" s="40"/>
       <c r="C62" s="29" t="s">
         <v>54</v>
       </c>
@@ -8441,12 +9042,16 @@
         <f>IF(ISNA(VLOOKUP(C62, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E62" s="35" t="e">
+        <f>VLOOKUP($C62, svod!$B$2:$H$200,6,0)-VLOOKUP($C62, svod!$B$2:$H$200,3,0)-VLOOKUP($C62, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="33">
         <v>62</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="39" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="29" t="s">
@@ -8456,12 +9061,16 @@
         <f>IF(ISNA(VLOOKUP(C63, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E63" s="35" t="e">
+        <f>VLOOKUP($C63, svod!$B$2:$H$200,6,0)-VLOOKUP($C63, svod!$B$2:$H$200,3,0)-VLOOKUP($C63, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="33">
         <v>63</v>
       </c>
-      <c r="B64" s="37"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="29" t="s">
         <v>117</v>
       </c>
@@ -8469,12 +9078,16 @@
         <f>IF(ISNA(VLOOKUP(C64, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="30" customHeight="1">
+      <c r="E64" s="35" t="e">
+        <f>VLOOKUP($C64, svod!$B$2:$H$200,6,0)-VLOOKUP($C64, svod!$B$2:$H$200,3,0)-VLOOKUP($C64, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1">
       <c r="A65" s="33">
         <v>64</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="29" t="s">
         <v>63</v>
       </c>
@@ -8482,12 +9095,16 @@
         <f>IF(ISNA(VLOOKUP(C65, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E65" s="35" t="e">
+        <f>VLOOKUP($C65, svod!$B$2:$H$200,6,0)-VLOOKUP($C65, svod!$B$2:$H$200,3,0)-VLOOKUP($C65, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="33">
         <v>65</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="39"/>
       <c r="C66" s="29" t="s">
         <v>120</v>
       </c>
@@ -8495,12 +9112,16 @@
         <f>IF(ISNA(VLOOKUP(C66, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E66" s="35" t="e">
+        <f>VLOOKUP($C66, svod!$B$2:$H$200,6,0)-VLOOKUP($C66, svod!$B$2:$H$200,3,0)-VLOOKUP($C66, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="33">
         <v>66</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="39"/>
       <c r="C67" s="29" t="s">
         <v>119</v>
       </c>
@@ -8508,12 +9129,16 @@
         <f>IF(ISNA(VLOOKUP(C67, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E67" s="35" t="e">
+        <f>VLOOKUP($C67, svod!$B$2:$H$200,6,0)-VLOOKUP($C67, svod!$B$2:$H$200,3,0)-VLOOKUP($C67, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="33">
         <v>67</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="29" t="s">
         <v>118</v>
       </c>
@@ -8521,12 +9146,16 @@
         <f>IF(ISNA(VLOOKUP(C68, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E68" s="35" t="e">
+        <f>VLOOKUP($C68, svod!$B$2:$H$200,6,0)-VLOOKUP($C68, svod!$B$2:$H$200,3,0)-VLOOKUP($C68, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="33">
         <v>68</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="29" t="s">
         <v>122</v>
       </c>
@@ -8534,12 +9163,16 @@
         <f>IF(ISNA(VLOOKUP(C69, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E69" s="35" t="e">
+        <f>VLOOKUP($C69, svod!$B$2:$H$200,6,0)-VLOOKUP($C69, svod!$B$2:$H$200,3,0)-VLOOKUP($C69, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="33">
         <v>69</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="29" t="s">
         <v>123</v>
       </c>
@@ -8547,12 +9180,16 @@
         <f>IF(ISNA(VLOOKUP(C70, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E70" s="35" t="e">
+        <f>VLOOKUP($C70, svod!$B$2:$H$200,6,0)-VLOOKUP($C70, svod!$B$2:$H$200,3,0)-VLOOKUP($C70, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="33">
         <v>70</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="29" t="s">
         <v>99</v>
       </c>
@@ -8560,12 +9197,16 @@
         <f>IF(ISNA(VLOOKUP(C71, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E71" s="35" t="e">
+        <f>VLOOKUP($C71, svod!$B$2:$H$200,6,0)-VLOOKUP($C71, svod!$B$2:$H$200,3,0)-VLOOKUP($C71, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="33">
         <v>71</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="29" t="s">
         <v>121</v>
       </c>
@@ -8573,12 +9214,16 @@
         <f>IF(ISNA(VLOOKUP(C72, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E72" s="35" t="e">
+        <f>VLOOKUP($C72, svod!$B$2:$H$200,6,0)-VLOOKUP($C72, svod!$B$2:$H$200,3,0)-VLOOKUP($C72, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="33">
         <v>72</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="39"/>
       <c r="C73" s="29" t="s">
         <v>113</v>
       </c>
@@ -8586,12 +9231,16 @@
         <f>IF(ISNA(VLOOKUP(C73, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E73" s="35" t="e">
+        <f>VLOOKUP($C73, svod!$B$2:$H$200,6,0)-VLOOKUP($C73, svod!$B$2:$H$200,3,0)-VLOOKUP($C73, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="33">
         <v>73</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="39"/>
       <c r="C74" s="29" t="s">
         <v>100</v>
       </c>
@@ -8599,12 +9248,16 @@
         <f>IF(ISNA(VLOOKUP(C74, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E74" s="35" t="e">
+        <f>VLOOKUP($C74, svod!$B$2:$H$200,6,0)-VLOOKUP($C74, svod!$B$2:$H$200,3,0)-VLOOKUP($C74, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="33">
         <v>74</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="29" t="s">
         <v>101</v>
       </c>
@@ -8612,12 +9265,16 @@
         <f>IF(ISNA(VLOOKUP(C75, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E75" s="35" t="e">
+        <f>VLOOKUP($C75, svod!$B$2:$H$200,6,0)-VLOOKUP($C75, svod!$B$2:$H$200,3,0)-VLOOKUP($C75, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="33">
         <v>75</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="29" t="s">
         <v>102</v>
       </c>
@@ -8625,12 +9282,16 @@
         <f>IF(ISNA(VLOOKUP(C76, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E76" s="35" t="e">
+        <f>VLOOKUP($C76, svod!$B$2:$H$200,6,0)-VLOOKUP($C76, svod!$B$2:$H$200,3,0)-VLOOKUP($C76, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="33">
         <v>76</v>
       </c>
-      <c r="B77" s="37"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="29" t="s">
         <v>103</v>
       </c>
@@ -8638,12 +9299,16 @@
         <f>IF(ISNA(VLOOKUP(C77, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E77" s="35" t="e">
+        <f>VLOOKUP($C77, svod!$B$2:$H$200,6,0)-VLOOKUP($C77, svod!$B$2:$H$200,3,0)-VLOOKUP($C77, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="33">
         <v>77</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="29" t="s">
         <v>64</v>
       </c>
@@ -8651,12 +9316,16 @@
         <f>IF(ISNA(VLOOKUP(C78, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E78" s="35" t="e">
+        <f>VLOOKUP($C78, svod!$B$2:$H$200,6,0)-VLOOKUP($C78, svod!$B$2:$H$200,3,0)-VLOOKUP($C78, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="33">
         <v>78</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="29" t="s">
         <v>104</v>
       </c>
@@ -8664,77 +9333,101 @@
         <f>IF(ISNA(VLOOKUP(C79, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1">
+      <c r="E79" s="35" t="e">
+        <f>VLOOKUP($C79, svod!$B$2:$H$200,6,0)-VLOOKUP($C79, svod!$B$2:$H$200,3,0)-VLOOKUP($C79, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="33">
         <v>79</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="39"/>
       <c r="C80" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D80" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C80, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E80" s="35" t="e">
+        <f>VLOOKUP($C80, svod!$B$2:$H$200,6,0)-VLOOKUP($C80, svod!$B$2:$H$200,3,0)-VLOOKUP($C80, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75">
       <c r="A81" s="33">
         <v>80</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="29" t="s">
         <v>106</v>
       </c>
       <c r="D81" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C81, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E81" s="35" t="e">
+        <f>VLOOKUP($C81, svod!$B$2:$H$200,6,0)-VLOOKUP($C81, svod!$B$2:$H$200,3,0)-VLOOKUP($C81, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75">
       <c r="A82" s="33">
         <v>81</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D82" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C82, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E82" s="35" t="e">
+        <f>VLOOKUP($C82, svod!$B$2:$H$200,6,0)-VLOOKUP($C82, svod!$B$2:$H$200,3,0)-VLOOKUP($C82, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75">
       <c r="A83" s="33">
         <v>82</v>
       </c>
-      <c r="B83" s="37"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D83" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C83, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E83" s="35" t="e">
+        <f>VLOOKUP($C83, svod!$B$2:$H$200,6,0)-VLOOKUP($C83, svod!$B$2:$H$200,3,0)-VLOOKUP($C83, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75">
       <c r="A84" s="33">
         <v>83</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="29" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C84, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E84" s="35" t="e">
+        <f>VLOOKUP($C84, svod!$B$2:$H$200,6,0)-VLOOKUP($C84, svod!$B$2:$H$200,3,0)-VLOOKUP($C84, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75">
       <c r="A85" s="33">
         <v>84</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="29" t="s">
         <v>127</v>
       </c>
@@ -8742,143 +9435,186 @@
         <f>IF(ISNA(VLOOKUP(C85, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-      <c r="E85" s="1"/>
+      <c r="E85" s="35" t="e">
+        <f>VLOOKUP($C85, svod!$B$2:$H$200,6,0)-VLOOKUP($C85, svod!$B$2:$H$200,3,0)-VLOOKUP($C85, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="86" spans="1:5" ht="15.75">
       <c r="A86" s="33">
         <v>85</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="29" t="s">
         <v>125</v>
       </c>
       <c r="D86" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C86, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E86" s="35" t="e">
+        <f>VLOOKUP($C86, svod!$B$2:$H$200,6,0)-VLOOKUP($C86, svod!$B$2:$H$200,3,0)-VLOOKUP($C86, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="30">
       <c r="A87" s="33">
         <v>86</v>
       </c>
-      <c r="B87" s="37"/>
+      <c r="B87" s="39"/>
       <c r="C87" s="29" t="s">
         <v>129</v>
       </c>
       <c r="D87" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C87, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E87" s="35" t="e">
+        <f>VLOOKUP($C87, svod!$B$2:$H$200,6,0)-VLOOKUP($C87, svod!$B$2:$H$200,3,0)-VLOOKUP($C87, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75">
       <c r="A88" s="33">
         <v>87</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D88" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C88, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E88" s="35" t="e">
+        <f>VLOOKUP($C88, svod!$B$2:$H$200,6,0)-VLOOKUP($C88, svod!$B$2:$H$200,3,0)-VLOOKUP($C88, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="30">
       <c r="A89" s="33">
         <v>88</v>
       </c>
-      <c r="B89" s="37"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D89" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C89, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E89" s="35" t="e">
+        <f>VLOOKUP($C89, svod!$B$2:$H$200,6,0)-VLOOKUP($C89, svod!$B$2:$H$200,3,0)-VLOOKUP($C89, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75">
       <c r="A90" s="33">
         <v>89</v>
       </c>
-      <c r="B90" s="37"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D90" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C90, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E90" s="35" t="e">
+        <f>VLOOKUP($C90, svod!$B$2:$H$200,6,0)-VLOOKUP($C90, svod!$B$2:$H$200,3,0)-VLOOKUP($C90, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75">
       <c r="A91" s="33">
         <v>90</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="29" t="s">
         <v>132</v>
       </c>
       <c r="D91" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C91, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E91" s="35" t="e">
+        <f>VLOOKUP($C91, svod!$B$2:$H$200,6,0)-VLOOKUP($C91, svod!$B$2:$H$200,3,0)-VLOOKUP($C91, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="30">
       <c r="A92" s="33">
         <v>91</v>
       </c>
-      <c r="B92" s="37"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="29" t="s">
         <v>131</v>
       </c>
       <c r="D92" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C92, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E92" s="35" t="e">
+        <f>VLOOKUP($C92, svod!$B$2:$H$200,6,0)-VLOOKUP($C92, svod!$B$2:$H$200,3,0)-VLOOKUP($C92, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75">
       <c r="A93" s="33">
         <v>92</v>
       </c>
-      <c r="B93" s="37"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="29" t="s">
         <v>124</v>
       </c>
       <c r="D93" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C93, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E93" s="35" t="e">
+        <f>VLOOKUP($C93, svod!$B$2:$H$200,6,0)-VLOOKUP($C93, svod!$B$2:$H$200,3,0)-VLOOKUP($C93, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75">
       <c r="A94" s="33">
         <v>93</v>
       </c>
-      <c r="B94" s="37"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="29" t="s">
         <v>137</v>
       </c>
       <c r="D94" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C94, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E94" s="35" t="e">
+        <f>VLOOKUP($C94, svod!$B$2:$H$200,6,0)-VLOOKUP($C94, svod!$B$2:$H$200,3,0)-VLOOKUP($C94, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75">
       <c r="A95" s="33">
         <v>94</v>
       </c>
-      <c r="B95" s="37"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="29" t="s">
         <v>135</v>
       </c>
       <c r="D95" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C95, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E95" s="35" t="e">
+        <f>VLOOKUP($C95, svod!$B$2:$H$200,6,0)-VLOOKUP($C95, svod!$B$2:$H$200,3,0)-VLOOKUP($C95, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75">
       <c r="A96" s="33">
         <v>95</v>
       </c>
-      <c r="B96" s="37"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="29" t="s">
         <v>139</v>
       </c>
@@ -8886,12 +9622,16 @@
         <f>IF(ISNA(VLOOKUP(C96, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75">
+      <c r="E96" s="35" t="e">
+        <f>VLOOKUP($C96, svod!$B$2:$H$200,6,0)-VLOOKUP($C96, svod!$B$2:$H$200,3,0)-VLOOKUP($C96, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="33">
         <v>96</v>
       </c>
-      <c r="B97" s="37"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="29" t="s">
         <v>59</v>
       </c>
@@ -8899,12 +9639,16 @@
         <f>IF(ISNA(VLOOKUP(C97, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75">
+      <c r="E97" s="35" t="e">
+        <f>VLOOKUP($C97, svod!$B$2:$H$200,6,0)-VLOOKUP($C97, svod!$B$2:$H$200,3,0)-VLOOKUP($C97, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="33">
         <v>97</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="29" t="s">
         <v>60</v>
       </c>
@@ -8912,12 +9656,16 @@
         <f>IF(ISNA(VLOOKUP(C98, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75">
+      <c r="E98" s="35" t="e">
+        <f>VLOOKUP($C98, svod!$B$2:$H$200,6,0)-VLOOKUP($C98, svod!$B$2:$H$200,3,0)-VLOOKUP($C98, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="33">
         <v>98</v>
       </c>
-      <c r="B99" s="37"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="29" t="s">
         <v>7</v>
       </c>
@@ -8925,12 +9673,16 @@
         <f>IF(ISNA(VLOOKUP(C99, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75">
+      <c r="E99" s="35" t="e">
+        <f>VLOOKUP($C99, svod!$B$2:$H$200,6,0)-VLOOKUP($C99, svod!$B$2:$H$200,3,0)-VLOOKUP($C99, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="33">
         <v>99</v>
       </c>
-      <c r="B100" s="37"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="29" t="s">
         <v>8</v>
       </c>
@@ -8938,12 +9690,16 @@
         <f>IF(ISNA(VLOOKUP(C100, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75">
+      <c r="E100" s="35" t="e">
+        <f>VLOOKUP($C100, svod!$B$2:$H$200,6,0)-VLOOKUP($C100, svod!$B$2:$H$200,3,0)-VLOOKUP($C100, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
       <c r="A101" s="33">
         <v>100</v>
       </c>
-      <c r="B101" s="37"/>
+      <c r="B101" s="39"/>
       <c r="C101" s="29" t="s">
         <v>9</v>
       </c>
@@ -8951,12 +9707,16 @@
         <f>IF(ISNA(VLOOKUP(C101, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75">
+      <c r="E101" s="35" t="e">
+        <f>VLOOKUP($C101, svod!$B$2:$H$200,6,0)-VLOOKUP($C101, svod!$B$2:$H$200,3,0)-VLOOKUP($C101, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75">
       <c r="A102" s="33">
         <v>101</v>
       </c>
-      <c r="B102" s="37"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="29" t="s">
         <v>136</v>
       </c>
@@ -8964,12 +9724,16 @@
         <f>IF(ISNA(VLOOKUP(C102, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75">
+      <c r="E102" s="35" t="e">
+        <f>VLOOKUP($C102, svod!$B$2:$H$200,6,0)-VLOOKUP($C102, svod!$B$2:$H$200,3,0)-VLOOKUP($C102, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75">
       <c r="A103" s="33">
         <v>102</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="29" t="s">
         <v>10</v>
       </c>
@@ -8977,12 +9741,16 @@
         <f>IF(ISNA(VLOOKUP(C103, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75">
+      <c r="E103" s="35" t="e">
+        <f>VLOOKUP($C103, svod!$B$2:$H$200,6,0)-VLOOKUP($C103, svod!$B$2:$H$200,3,0)-VLOOKUP($C103, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75">
       <c r="A104" s="33">
         <v>103</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="29" t="s">
         <v>6</v>
       </c>
@@ -8990,12 +9758,16 @@
         <f>IF(ISNA(VLOOKUP(C104, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="30">
+      <c r="E104" s="35" t="e">
+        <f>VLOOKUP($C104, svod!$B$2:$H$200,6,0)-VLOOKUP($C104, svod!$B$2:$H$200,3,0)-VLOOKUP($C104, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="30">
       <c r="A105" s="33">
         <v>104</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="29" t="s">
         <v>67</v>
       </c>
@@ -9003,12 +9775,16 @@
         <f>IF(ISNA(VLOOKUP(C105, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75">
+      <c r="E105" s="35" t="e">
+        <f>VLOOKUP($C105, svod!$B$2:$H$200,6,0)-VLOOKUP($C105, svod!$B$2:$H$200,3,0)-VLOOKUP($C105, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75">
       <c r="A106" s="33">
         <v>105</v>
       </c>
-      <c r="B106" s="37"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="29" t="s">
         <v>133</v>
       </c>
@@ -9016,12 +9792,16 @@
         <f>IF(ISNA(VLOOKUP(C106, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75">
+      <c r="E106" s="35" t="e">
+        <f>VLOOKUP($C106, svod!$B$2:$H$200,6,0)-VLOOKUP($C106, svod!$B$2:$H$200,3,0)-VLOOKUP($C106, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75">
       <c r="A107" s="33">
         <v>106</v>
       </c>
-      <c r="B107" s="37"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="29" t="s">
         <v>49</v>
       </c>
@@ -9029,12 +9809,16 @@
         <f>IF(ISNA(VLOOKUP(C107, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="30">
+      <c r="E107" s="35" t="e">
+        <f>VLOOKUP($C107, svod!$B$2:$H$200,6,0)-VLOOKUP($C107, svod!$B$2:$H$200,3,0)-VLOOKUP($C107, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30">
       <c r="A108" s="33">
         <v>107</v>
       </c>
-      <c r="B108" s="37"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="29" t="s">
         <v>134</v>
       </c>
@@ -9042,12 +9826,16 @@
         <f>IF(ISNA(VLOOKUP(C108, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75">
+      <c r="E108" s="35" t="e">
+        <f>VLOOKUP($C108, svod!$B$2:$H$200,6,0)-VLOOKUP($C108, svod!$B$2:$H$200,3,0)-VLOOKUP($C108, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75">
       <c r="A109" s="33">
         <v>108</v>
       </c>
-      <c r="B109" s="37"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="29" t="s">
         <v>50</v>
       </c>
@@ -9055,12 +9843,16 @@
         <f>IF(ISNA(VLOOKUP(C109, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="30">
+      <c r="E109" s="35" t="e">
+        <f>VLOOKUP($C109, svod!$B$2:$H$200,6,0)-VLOOKUP($C109, svod!$B$2:$H$200,3,0)-VLOOKUP($C109, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30">
       <c r="A110" s="33">
         <v>109</v>
       </c>
-      <c r="B110" s="37"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="29" t="s">
         <v>65</v>
       </c>
@@ -9068,12 +9860,16 @@
         <f>IF(ISNA(VLOOKUP(C110, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75">
+      <c r="E110" s="35" t="e">
+        <f>VLOOKUP($C110, svod!$B$2:$H$200,6,0)-VLOOKUP($C110, svod!$B$2:$H$200,3,0)-VLOOKUP($C110, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75">
       <c r="A111" s="33">
         <v>110</v>
       </c>
-      <c r="B111" s="37"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="29" t="s">
         <v>52</v>
       </c>
@@ -9081,12 +9877,16 @@
         <f>IF(ISNA(VLOOKUP(C111, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="30">
+      <c r="E111" s="35" t="e">
+        <f>VLOOKUP($C111, svod!$B$2:$H$200,6,0)-VLOOKUP($C111, svod!$B$2:$H$200,3,0)-VLOOKUP($C111, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="30">
       <c r="A112" s="33">
         <v>111</v>
       </c>
-      <c r="B112" s="37"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="29" t="s">
         <v>66</v>
       </c>
@@ -9094,18 +9894,26 @@
         <f>IF(ISNA(VLOOKUP(C112, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75">
+      <c r="E112" s="35" t="e">
+        <f>VLOOKUP($C112, svod!$B$2:$H$200,6,0)-VLOOKUP($C112, svod!$B$2:$H$200,3,0)-VLOOKUP($C112, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75">
       <c r="A113" s="33">
         <v>112</v>
       </c>
-      <c r="B113" s="37"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="29" t="s">
         <v>138</v>
       </c>
       <c r="D113" s="30" t="str">
         <f>IF(ISNA(VLOOKUP(C113, svod!$B$2:$B$181, 1, 0)), "должник", "сдал")</f>
         <v>должник</v>
+      </c>
+      <c r="E113" s="35" t="e">
+        <f>VLOOKUP($C113, svod!$B$2:$H$200,6,0)-VLOOKUP($C113, svod!$B$2:$H$200,3,0)-VLOOKUP($C113, svod!$B$2:$H$200,4,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -9127,125 +9935,26 @@
     <mergeCell ref="B50:B51"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D151">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Должник">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Должник">
       <formula>NOT(ISERROR(SEARCH("Должник",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"сдал"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E113">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.70000004768371604" right="0.70000004768371604" top="0.75" bottom="0.75" header="0.30000001192092901" footer="0.30000001192092901"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="73" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" ht="12.75">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="2:2" ht="12.75">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="2:2" ht="12.75">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="2:2" ht="12.75">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="2:2" ht="12.75">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="2:2" ht="12.75">
-      <c r="B7"/>
-    </row>
-    <row r="8" spans="2:2" ht="12.75">
-      <c r="B8"/>
-    </row>
-    <row r="9" spans="2:2" ht="12.75">
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="2:2" ht="12.75">
-      <c r="B10"/>
-    </row>
-    <row r="11" spans="2:2" ht="12.75">
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="2:2" ht="12.75">
-      <c r="B12"/>
-    </row>
-    <row r="13" spans="2:2" ht="12.75">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="2:2" ht="12.75">
-      <c r="B14"/>
-    </row>
-    <row r="15" spans="2:2" ht="12.75">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="2:2" ht="12.75">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" ht="12.75">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" ht="12.75">
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="2:2" ht="12.75">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:2" ht="12.75">
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="2:2" ht="12.75">
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="2:2" ht="12.75">
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="2:2" ht="12.75">
-      <c r="B23"/>
-    </row>
-    <row r="24" spans="2:2" ht="12.75">
-      <c r="B24"/>
-    </row>
-    <row r="25" spans="2:2" ht="12.75">
-      <c r="B25"/>
-    </row>
-    <row r="26" spans="2:2" ht="12.75">
-      <c r="B26"/>
-    </row>
-    <row r="27" spans="2:2" ht="12.75">
-      <c r="B27"/>
-    </row>
-    <row r="28" spans="2:2" ht="12.75">
-      <c r="B28"/>
-    </row>
-    <row r="29" spans="2:2" ht="12.75">
-      <c r="B29"/>
-    </row>
-    <row r="30" spans="2:2" ht="12.75">
-      <c r="B30"/>
-    </row>
-    <row r="31" spans="2:2" ht="12.75">
-      <c r="B31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.59055554866790805" right="0.59055554866790805" top="0.59055554866790805" bottom="0.59055554866790805" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>